--- a/R/fagskole/mal/Kontroll_private_fagskoler_2025_demo.xlsx
+++ b/R/fagskole/mal/Kontroll_private_fagskoler_2025_demo.xlsx
@@ -1100,12 +1100,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1929,6 +1929,30 @@
       <alignment textRotation="0" horizontal="general" vertical="center" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="center" indent="0" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="center" vertical="center" indent="0" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="center" vertical="center" indent="0" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="center" indent="0" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
@@ -1937,36 +1961,12 @@
       <alignment textRotation="0" horizontal="left" vertical="center" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="center" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="center" indent="0" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="center" indent="0" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="center" vertical="center" indent="0" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="center" vertical="center" indent="0" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="center" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1997,7 +1997,7 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2005,7 +2005,7 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2013,7 +2013,7 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2025,11 +2025,11 @@
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2057,43 +2057,51 @@
       <alignment textRotation="0" horizontal="center" vertical="center" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="right" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="right" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2141,15 +2149,15 @@
       <alignment textRotation="0" horizontal="right" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2233,47 +2241,47 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="center" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2281,47 +2289,47 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2333,95 +2341,95 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2437,7 +2445,7 @@
       <alignment textRotation="0" horizontal="right" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2453,7 +2461,7 @@
       <alignment textRotation="0" horizontal="right" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2465,14 +2473,6 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="right" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
@@ -2485,7 +2485,7 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2521,75 +2521,75 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2621,7 +2621,7 @@
       <alignment textRotation="0" horizontal="right" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2665,7 +2665,7 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2705,11 +2705,11 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2721,15 +2721,15 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2789,7 +2789,7 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="63" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="63" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="center" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2809,7 +2809,7 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2877,7 +2877,7 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="63" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="63" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2957,11 +2957,11 @@
       <alignment textRotation="0" horizontal="center" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="70" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2973,7 +2973,7 @@
       <alignment textRotation="0" horizontal="general" vertical="bottom" indent="0"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="0" horizontal="left" vertical="bottom" indent="0" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -5523,131 +5523,131 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="246.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" ht="260.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" ht="156" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="117" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" ht="117" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="90.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6061,7 +6061,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="22"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -6433,172 +6433,172 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="64" t="s">
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="66" t="s">
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
     </row>
     <row r="5" ht="66" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68" t="n">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70" t="n">
         <v>2022</v>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="71" t="n">
         <v>2023</v>
       </c>
-      <c r="D5" s="69" t="n">
+      <c r="D5" s="71" t="n">
         <v>2024</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="71" t="n">
+      <c r="F5" s="73" t="n">
         <v>2022</v>
       </c>
-      <c r="G5" s="72" t="n">
+      <c r="G5" s="74" t="n">
         <v>2023</v>
       </c>
-      <c r="H5" s="72" t="n">
+      <c r="H5" s="74" t="n">
         <v>2024</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="68" t="n">
+      <c r="J5" s="70" t="n">
         <v>2022</v>
       </c>
-      <c r="K5" s="69" t="n">
+      <c r="K5" s="71" t="n">
         <v>2023</v>
       </c>
-      <c r="L5" s="69" t="n">
+      <c r="L5" s="71" t="n">
         <v>2024</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="75" t="n">
+      <c r="N5" s="77" t="n">
         <v>2022</v>
       </c>
-      <c r="O5" s="76" t="n">
+      <c r="O5" s="78" t="n">
         <v>2023</v>
       </c>
-      <c r="P5" s="76" t="n">
+      <c r="P5" s="78" t="n">
         <v>2024</v>
       </c>
-      <c r="Q5" s="73" t="s">
+      <c r="Q5" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="R5" s="68" t="n">
+      <c r="R5" s="70" t="n">
         <v>2022</v>
       </c>
-      <c r="S5" s="69" t="n">
+      <c r="S5" s="71" t="n">
         <v>2023</v>
       </c>
-      <c r="T5" s="69" t="n">
+      <c r="T5" s="71" t="n">
         <v>2024</v>
       </c>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="79" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="79" t="n">
+      <c r="B6" s="81" t="n">
         <v>100457</v>
       </c>
-      <c r="C6" s="79" t="n">
-        <v>2855</v>
-      </c>
-      <c r="D6" s="79" t="n">
-        <v>3586.5</v>
-      </c>
-      <c r="E6" s="80" t="n">
+      <c r="C6" s="81" t="n">
+        <v>100064</v>
+      </c>
+      <c r="D6" s="81" t="n">
+        <v>94338</v>
+      </c>
+      <c r="E6" s="82" t="n">
         <f aca="false">IFERROR((D6-C6)/ABS(C6),0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="81" t="n">
+      <c r="F6" s="83" t="n">
         <v>91351</v>
       </c>
-      <c r="G6" s="82" t="n">
-        <v>2333</v>
-      </c>
-      <c r="H6" s="82" t="n">
-        <v>2266.512</v>
-      </c>
-      <c r="I6" s="83" t="n">
+      <c r="G6" s="84" t="n">
+        <v>96854</v>
+      </c>
+      <c r="H6" s="84" t="n">
+        <v>102197</v>
+      </c>
+      <c r="I6" s="85" t="n">
         <f aca="false">IFERROR((H6-G6)/ABS(G6),0)</f>
         <v>0</v>
       </c>
@@ -6608,58 +6608,66 @@
       </c>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="84" t="n">
+      <c r="M6" s="86" t="n">
         <f aca="false">IFERROR((L6-K6)/ABS(K6),0)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="85" t="n">
+      <c r="N6" s="87" t="n">
         <v>9212</v>
       </c>
-      <c r="O6" s="86" t="n">
-        <v>387</v>
-      </c>
-      <c r="P6" s="86" t="n">
-        <v>1023.279</v>
-      </c>
-      <c r="Q6" s="83" t="n">
+      <c r="O6" s="88" t="n">
+        <v>4398</v>
+      </c>
+      <c r="P6" s="88" t="n">
+        <v>-6608</v>
+      </c>
+      <c r="Q6" s="85" t="n">
         <f aca="false">IFERROR((P6-O6)/ABS(O6),0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="87" t="n">
+      <c r="R6" s="89" t="n">
         <f aca="false">IFERROR(J6/B6,0)</f>
         <v>0.0906457489274018</v>
       </c>
-      <c r="S6" s="56" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="T6" s="56" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="U6" s="88" t="n">
+      <c r="S6" s="58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T6" s="58" t="n">
+        <v>-8.3</v>
+      </c>
+      <c r="U6" s="90" t="n">
         <f aca="false">+T6-S6</f>
         <v>0</v>
       </c>
-      <c r="W6" s="89"/>
+      <c r="W6" s="91"/>
     </row>
     <row r="7" ht="13.8" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="90" t="n">
+      <c r="B7" s="92" t="n">
         <v>175472</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="80" t="n">
+      <c r="C7" s="93" t="n">
+        <v>39398</v>
+      </c>
+      <c r="D7" s="93" t="n">
+        <v>34918</v>
+      </c>
+      <c r="E7" s="82" t="n">
         <f aca="false">IFERROR((D7-C7)/ABS(C7),0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="92" t="n">
+      <c r="F7" s="94" t="n">
         <v>173386</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="83" t="n">
+      <c r="G7" s="98" t="n">
+        <v>36967</v>
+      </c>
+      <c r="H7" s="98" t="n">
+        <v>36693</v>
+      </c>
+      <c r="I7" s="85" t="n">
         <f aca="false">IFERROR((H7-G7)/ABS(G7),0)</f>
         <v>0</v>
       </c>
@@ -6669,50 +6677,58 @@
       </c>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="84" t="n">
+      <c r="M7" s="86" t="n">
         <f aca="false">IFERROR((L7-K7)/ABS(K7),0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="92" t="n">
+      <c r="N7" s="94" t="n">
         <v>2720</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="83" t="n">
+      <c r="O7" s="98" t="n">
+        <v>2373</v>
+      </c>
+      <c r="P7" s="98" t="n">
+        <v>-1641</v>
+      </c>
+      <c r="Q7" s="85" t="n">
         <f aca="false">IFERROR((P7-O7)/ABS(O7),0)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="87" t="n">
+      <c r="R7" s="89" t="n">
         <f aca="false">IFERROR(J7/B7,0)</f>
         <v>0.0118879365368834</v>
       </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="87" t="n">
+      <c r="S7" s="58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T7" s="58" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="U7" s="89" t="n">
         <f aca="false">+T7-S7</f>
         <v>0</v>
       </c>
-      <c r="W7" s="89"/>
+      <c r="W7" s="91"/>
     </row>
     <row r="8" ht="13.8" customHeight="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="90" t="n">
+      <c r="B8" s="92" t="n">
         <v>37411</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="80" t="n">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="82" t="n">
         <f aca="false">IFERROR((D8-C8)/ABS(C8),0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="96" t="n">
+      <c r="F8" s="98" t="n">
         <v>35542</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="83" t="n">
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="85" t="n">
         <f aca="false">IFERROR((H8-G8)/ABS(G8),0)</f>
         <v>0</v>
       </c>
@@ -6721,50 +6737,58 @@
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="84" t="n">
+      <c r="M8" s="86" t="n">
         <f aca="false">IFERROR((L8-K8)/ABS(K8),0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="96" t="n">
+      <c r="N8" s="98" t="n">
         <v>1799</v>
       </c>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="83" t="n">
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="85" t="n">
         <f aca="false">IFERROR((P8-O8)/ABS(O8),0)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="98" t="n">
+      <c r="R8" s="100" t="n">
         <f aca="false">IFERROR(J8/B8,0)</f>
         <v>0.0499585683355163</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="87" t="n">
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="89" t="n">
         <f aca="false">+T8-S8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="89"/>
+      <c r="W8" s="91"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="90" t="n">
+      <c r="B9" s="92" t="n">
         <v>189</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="80" t="n">
+      <c r="C9" s="102" t="n">
+        <v>15941</v>
+      </c>
+      <c r="D9" s="103" t="n">
+        <v>17381</v>
+      </c>
+      <c r="E9" s="82" t="n">
         <f aca="false">IFERROR((D9-C9)/ABS(C9),0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="96" t="n">
+      <c r="F9" s="98" t="n">
         <v>1051</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="83" t="n">
+      <c r="G9" s="97" t="n">
+        <v>14419</v>
+      </c>
+      <c r="H9" s="104" t="n">
+        <v>16574</v>
+      </c>
+      <c r="I9" s="85" t="n">
         <f aca="false">IFERROR((H9-G9)/ABS(G9),0)</f>
         <v>0</v>
       </c>
@@ -6774,50 +6798,66 @@
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="84" t="n">
+      <c r="M9" s="86" t="n">
         <f aca="false">IFERROR((L9-K9)/ABS(K9),0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="96" t="n">
+      <c r="N9" s="98" t="n">
         <v>-965</v>
       </c>
-      <c r="O9" s="97"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="83" t="n">
+      <c r="O9" s="99" t="n">
+        <v>1228</v>
+      </c>
+      <c r="P9" s="104" t="n">
+        <v>752</v>
+      </c>
+      <c r="Q9" s="85" t="n">
         <f aca="false">IFERROR((P9-O9)/ABS(O9),0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="103" t="n">
+      <c r="R9" s="105" t="n">
         <f aca="false">IFERROR(J9/B9,0)</f>
         <v>-4.56084656084656</v>
       </c>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="87" t="n">
+      <c r="S9" s="105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T9" s="105" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U9" s="89" t="n">
         <f aca="false">+T9-S9</f>
         <v>0</v>
       </c>
-      <c r="W9" s="89"/>
+      <c r="W9" s="91"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="90" t="n">
+      <c r="B10" s="92" t="n">
         <v>10936.6</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="80" t="n">
+      <c r="C10" s="106" t="n">
+        <v>6432</v>
+      </c>
+      <c r="D10" s="106" t="n">
+        <v>6580</v>
+      </c>
+      <c r="E10" s="82" t="n">
         <f aca="false">IFERROR((D10-C10)/ABS(C10),0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="96" t="n">
+      <c r="F10" s="98" t="n">
         <v>10495.3</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="83" t="n">
+      <c r="G10" s="107" t="n">
+        <v>6425</v>
+      </c>
+      <c r="H10" s="107" t="n">
+        <v>7012</v>
+      </c>
+      <c r="I10" s="85" t="n">
         <f aca="false">IFERROR((H10-G10)/ABS(G10),0)</f>
         <v>0</v>
       </c>
@@ -6827,50 +6867,66 @@
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="84" t="n">
+      <c r="M10" s="86" t="n">
         <f aca="false">IFERROR((L10-K10)/ABS(K10),0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="96" t="n">
+      <c r="N10" s="98" t="n">
         <v>341</v>
       </c>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="83" t="n">
+      <c r="O10" s="107" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" s="107" t="n">
+        <v>-344</v>
+      </c>
+      <c r="Q10" s="85" t="n">
         <f aca="false">IFERROR((P10-O10)/ABS(O10),0)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="98" t="n">
+      <c r="R10" s="100" t="n">
         <f aca="false">IFERROR(J10/B10,0)</f>
         <v>0.0403507488616207</v>
       </c>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="87" t="n">
+      <c r="S10" s="105" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T10" s="105" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="U10" s="89" t="n">
         <f aca="false">+T10-S10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="89"/>
+      <c r="W10" s="91"/>
     </row>
     <row r="11" ht="13.8" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="90" t="n">
+      <c r="B11" s="92" t="n">
         <v>6117</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="80" t="n">
+      <c r="C11" s="108" t="n">
+        <v>5675</v>
+      </c>
+      <c r="D11" s="108" t="n">
+        <v>6349</v>
+      </c>
+      <c r="E11" s="82" t="n">
         <f aca="false">IFERROR((D11-C11)/ABS(C11),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="96" t="n">
+      <c r="F11" s="98" t="n">
         <v>6023</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="83" t="n">
+      <c r="G11" s="109" t="n">
+        <v>6704</v>
+      </c>
+      <c r="H11" s="109" t="n">
+        <v>6349</v>
+      </c>
+      <c r="I11" s="85" t="n">
         <f aca="false">IFERROR((H11-G11)/ABS(G11),0)</f>
         <v>0</v>
       </c>
@@ -6879,50 +6935,66 @@
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="84" t="n">
+      <c r="M11" s="86" t="n">
         <f aca="false">IFERROR((L11-K11)/ABS(K11),0)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="96" t="n">
+      <c r="N11" s="98" t="n">
         <v>77</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="83" t="n">
+      <c r="O11" s="110" t="n">
+        <v>-1029</v>
+      </c>
+      <c r="P11" s="110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="85" t="n">
         <f aca="false">IFERROR((P11-O11)/ABS(O11),0)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="98" t="n">
+      <c r="R11" s="100" t="n">
         <f aca="false">IFERROR(J11/B11,0)</f>
         <v>0.0153670099722086</v>
       </c>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="87" t="n">
+      <c r="S11" s="105" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="T11" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="89" t="n">
         <f aca="false">+T11-S11</f>
         <v>0</v>
       </c>
-      <c r="W11" s="89"/>
+      <c r="W11" s="91"/>
     </row>
     <row r="12" ht="13.8" customHeight="1">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="90" t="n">
+      <c r="B12" s="92" t="n">
         <v>5902</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="80" t="n">
+      <c r="C12" s="108" t="n">
+        <v>24842</v>
+      </c>
+      <c r="D12" s="108" t="n">
+        <v>48534</v>
+      </c>
+      <c r="E12" s="82" t="n">
         <f aca="false">IFERROR((D12-C12)/ABS(C12),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="96" t="n">
+      <c r="F12" s="98" t="n">
         <v>5892</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="83" t="n">
+      <c r="G12" s="109" t="n">
+        <v>18670</v>
+      </c>
+      <c r="H12" s="109" t="n">
+        <v>43137</v>
+      </c>
+      <c r="I12" s="85" t="n">
         <f aca="false">IFERROR((H12-G12)/ABS(G12),0)</f>
         <v>0</v>
       </c>
@@ -6931,58 +7003,66 @@
       </c>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
-      <c r="M12" s="84" t="n">
+      <c r="M12" s="86" t="n">
         <f aca="false">IFERROR((L12-K12)/ABS(K12),0)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="96" t="n">
+      <c r="N12" s="98" t="n">
         <v>10</v>
       </c>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="83" t="n">
+      <c r="O12" s="109" t="n">
+        <v>4548</v>
+      </c>
+      <c r="P12" s="109" t="n">
+        <v>4231</v>
+      </c>
+      <c r="Q12" s="85" t="n">
         <f aca="false">IFERROR((P12-O12)/ABS(O12),0)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="98" t="n">
+      <c r="R12" s="100" t="n">
         <f aca="false">IFERROR(J12/B12,0)</f>
         <v>0.00169434090138936</v>
       </c>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="87" t="n">
+      <c r="S12" s="105" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="T12" s="105" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="U12" s="89" t="n">
         <f aca="false">+T12-S12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="89"/>
+      <c r="W12" s="91"/>
     </row>
     <row r="13" ht="13.8" customHeight="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="90" t="n">
+      <c r="B13" s="92" t="n">
         <v>9374</v>
       </c>
-      <c r="C13" s="106" t="n">
+      <c r="C13" s="108" t="n">
         <v>22459</v>
       </c>
-      <c r="D13" s="106" t="n">
+      <c r="D13" s="108" t="n">
         <v>23708.569</v>
       </c>
-      <c r="E13" s="80" t="n">
+      <c r="E13" s="82" t="n">
         <f aca="false">IFERROR((D13-C13)/ABS(C13),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="96" t="n">
+      <c r="F13" s="98" t="n">
         <v>8602</v>
       </c>
-      <c r="G13" s="107" t="n">
+      <c r="G13" s="109" t="n">
         <v>21445.269</v>
       </c>
-      <c r="H13" s="107" t="n">
+      <c r="H13" s="109" t="n">
         <v>23538.113</v>
       </c>
-      <c r="I13" s="83" t="n">
+      <c r="I13" s="85" t="n">
         <f aca="false">IFERROR((H13-G13)/ABS(G13),0)</f>
         <v>0</v>
       </c>
@@ -6991,44 +7071,44 @@
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="84" t="n">
+      <c r="M13" s="86" t="n">
         <f aca="false">IFERROR((L13-K13)/ABS(K13),0)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="96" t="n">
+      <c r="N13" s="98" t="n">
         <v>610</v>
       </c>
-      <c r="O13" s="107" t="n">
+      <c r="O13" s="109" t="n">
         <v>1337.431</v>
       </c>
-      <c r="P13" s="107" t="n">
+      <c r="P13" s="109" t="n">
         <v>717.545000000002</v>
       </c>
-      <c r="Q13" s="83" t="n">
+      <c r="Q13" s="85" t="n">
         <f aca="false">IFERROR((P13-O13)/ABS(O13),0)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="98" t="n">
+      <c r="R13" s="100" t="n">
         <f aca="false">IFERROR(J13/B13,0)</f>
         <v>0.0823554512481331</v>
       </c>
-      <c r="S13" s="109" t="n">
+      <c r="S13" s="111" t="n">
         <v>4.5</v>
       </c>
-      <c r="T13" s="109" t="n">
+      <c r="T13" s="111" t="n">
         <v>0.7</v>
       </c>
-      <c r="U13" s="87" t="n">
+      <c r="U13" s="89" t="n">
         <f aca="false">+T13-S13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="89"/>
+      <c r="W13" s="91"/>
     </row>
     <row r="14" ht="13.8" customHeight="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="90" t="n">
+      <c r="B14" s="92" t="n">
         <v>21245</v>
       </c>
       <c r="C14" s="26" t="n">
@@ -7037,20 +7117,20 @@
       <c r="D14" s="26" t="n">
         <v>7130</v>
       </c>
-      <c r="E14" s="80" t="n">
+      <c r="E14" s="82" t="n">
         <f aca="false">IFERROR((D14-C14)/ABS(C14),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="96" t="n">
+      <c r="F14" s="98" t="n">
         <v>21432</v>
       </c>
-      <c r="G14" s="108" t="n">
+      <c r="G14" s="110" t="n">
         <v>6194</v>
       </c>
-      <c r="H14" s="108" t="n">
+      <c r="H14" s="110" t="n">
         <v>6853</v>
       </c>
-      <c r="I14" s="83" t="n">
+      <c r="I14" s="85" t="n">
         <f aca="false">IFERROR((H14-G14)/ABS(G14),0)</f>
         <v>0</v>
       </c>
@@ -7059,58 +7139,66 @@
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="84" t="n">
+      <c r="M14" s="86" t="n">
         <f aca="false">IFERROR((L14-K14)/ABS(K14),0)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="96" t="n">
+      <c r="N14" s="98" t="n">
         <v>-883</v>
       </c>
-      <c r="O14" s="108" t="n">
+      <c r="O14" s="110" t="n">
         <v>662</v>
       </c>
-      <c r="P14" s="108" t="n">
+      <c r="P14" s="110" t="n">
         <v>392</v>
       </c>
-      <c r="Q14" s="83" t="n">
+      <c r="Q14" s="85" t="n">
         <f aca="false">IFERROR((P14-O14)/ABS(O14),0)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="98" t="n">
+      <c r="R14" s="100" t="n">
         <f aca="false">IFERROR(J14/B14,0)</f>
         <v>-0.00880207107554719</v>
       </c>
-      <c r="S14" s="109" t="n">
+      <c r="S14" s="111" t="n">
         <v>8.6</v>
       </c>
-      <c r="T14" s="109" t="n">
+      <c r="T14" s="111" t="n">
         <v>3.9</v>
       </c>
-      <c r="U14" s="87" t="n">
+      <c r="U14" s="89" t="n">
         <f aca="false">+T14-S14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="89"/>
+      <c r="W14" s="91"/>
     </row>
     <row r="15" ht="13.8" customHeight="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="90" t="n">
+      <c r="B15" s="92" t="n">
         <v>6575</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="80" t="n">
+      <c r="C15" s="108" t="n">
+        <v>2318</v>
+      </c>
+      <c r="D15" s="108" t="n">
+        <v>7745.12106</v>
+      </c>
+      <c r="E15" s="82" t="n">
         <f aca="false">IFERROR((D15-C15)/ABS(C15),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="96" t="n">
+      <c r="F15" s="98" t="n">
         <v>6428</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="83" t="n">
+      <c r="G15" s="109" t="n">
+        <v>7802</v>
+      </c>
+      <c r="H15" s="109" t="n">
+        <v>11167</v>
+      </c>
+      <c r="I15" s="85" t="n">
         <f aca="false">IFERROR((H15-G15)/ABS(G15),0)</f>
         <v>0</v>
       </c>
@@ -7120,50 +7208,66 @@
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="84" t="n">
+      <c r="M15" s="86" t="n">
         <f aca="false">IFERROR((L15-K15)/ABS(K15),0)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="96" t="n">
+      <c r="N15" s="98" t="n">
         <v>150</v>
       </c>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="83" t="n">
+      <c r="O15" s="110" t="n">
+        <v>-5430</v>
+      </c>
+      <c r="P15" s="110" t="n">
+        <v>-2942.87894</v>
+      </c>
+      <c r="Q15" s="85" t="n">
         <f aca="false">IFERROR((P15-O15)/ABS(O15),0)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="98" t="n">
+      <c r="R15" s="100" t="n">
         <f aca="false">IFERROR(J15/B15,0)</f>
         <v>0.0223574144486692</v>
       </c>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="87" t="n">
+      <c r="S15" s="111" t="n">
+        <v>-236.6</v>
+      </c>
+      <c r="T15" s="111" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="U15" s="89" t="n">
         <f aca="false">+T15-S15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="89"/>
+      <c r="W15" s="91"/>
     </row>
     <row r="16" ht="13.8" customHeight="1">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="80" t="n">
+      <c r="B16" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="108" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D16" s="108" t="n">
+        <v>2237</v>
+      </c>
+      <c r="E16" s="82" t="n">
         <f aca="false">IFERROR((D16-C16)/ABS(C16),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="96" t="n">
+      <c r="F16" s="98" t="n">
         <v>3007</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="83" t="n">
+      <c r="G16" s="109" t="n">
+        <v>2132</v>
+      </c>
+      <c r="H16" s="109" t="n">
+        <v>2210</v>
+      </c>
+      <c r="I16" s="85" t="n">
         <f aca="false">IFERROR((H16-G16)/ABS(G16),0)</f>
         <v>0</v>
       </c>
@@ -7173,50 +7277,66 @@
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="84" t="n">
+      <c r="M16" s="86" t="n">
         <f aca="false">IFERROR((L16-K16)/ABS(K16),0)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="96" t="n">
+      <c r="N16" s="98" t="n">
         <v>-3009</v>
       </c>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="83" t="n">
+      <c r="O16" s="110" t="n">
+        <v>-26</v>
+      </c>
+      <c r="P16" s="110" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="85" t="n">
         <f aca="false">IFERROR((P16-O16)/ABS(O16),0)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="98" t="n">
+      <c r="R16" s="100" t="n">
         <f aca="false">IFERROR(J16/B16,0)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="87" t="n">
+      <c r="S16" s="111" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="T16" s="111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U16" s="89" t="n">
         <f aca="false">+T16-S16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="89"/>
+      <c r="W16" s="91"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="90" t="n">
+      <c r="B17" s="92" t="n">
         <v>1893</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="80" t="n">
+      <c r="C17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26" t="n">
+        <v>2047</v>
+      </c>
+      <c r="E17" s="82" t="n">
         <f aca="false">IFERROR((D17-C17)/ABS(C17),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="96" t="n">
+      <c r="F17" s="98" t="n">
         <v>2072.692</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="83" t="n">
+      <c r="G17" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="110" t="n">
+        <v>2135</v>
+      </c>
+      <c r="I17" s="85" t="n">
         <f aca="false">IFERROR((H17-G17)/ABS(G17),0)</f>
         <v>0</v>
       </c>
@@ -7226,50 +7346,64 @@
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="84" t="n">
+      <c r="M17" s="86" t="n">
         <f aca="false">IFERROR((L17-K17)/ABS(K17),0)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="96" t="n">
+      <c r="N17" s="98" t="n">
         <v>-172.692</v>
       </c>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="83" t="n">
+      <c r="O17" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="110" t="n">
+        <v>-74</v>
+      </c>
+      <c r="Q17" s="85" t="n">
         <f aca="false">IFERROR((P17-O17)/ABS(O17),0)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="98" t="n">
+      <c r="R17" s="100" t="n">
         <f aca="false">IFERROR(J17/B17,0)</f>
         <v>-0.0949244585314316</v>
       </c>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="87" t="n">
+      <c r="S17" s="111"/>
+      <c r="T17" s="111" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="U17" s="89" t="n">
         <f aca="false">+T17-S17</f>
         <v>0</v>
       </c>
-      <c r="W17" s="89"/>
+      <c r="W17" s="91"/>
     </row>
     <row r="18" ht="13.8" customHeight="1">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="90" t="n">
+      <c r="B18" s="92" t="n">
         <v>861</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="80" t="n">
+      <c r="C18" s="108" t="n">
+        <v>184708</v>
+      </c>
+      <c r="D18" s="108" t="n">
+        <v>185361</v>
+      </c>
+      <c r="E18" s="82" t="n">
         <f aca="false">IFERROR((D18-C18)/ABS(C18),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="96" t="n">
+      <c r="F18" s="98" t="n">
         <v>981</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="83" t="n">
+      <c r="G18" s="110" t="n">
+        <v>187766</v>
+      </c>
+      <c r="H18" s="110" t="n">
+        <v>192639</v>
+      </c>
+      <c r="I18" s="85" t="n">
         <f aca="false">IFERROR((H18-G18)/ABS(G18),0)</f>
         <v>0</v>
       </c>
@@ -7279,50 +7413,66 @@
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="40"/>
-      <c r="M18" s="84" t="n">
+      <c r="M18" s="86" t="n">
         <f aca="false">IFERROR((L18-K18)/ABS(K18),0)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="96" t="n">
+      <c r="N18" s="98" t="n">
         <v>-120</v>
       </c>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="83" t="n">
+      <c r="O18" s="110" t="n">
+        <v>-1067</v>
+      </c>
+      <c r="P18" s="110" t="n">
+        <v>-4740.4</v>
+      </c>
+      <c r="Q18" s="85" t="n">
         <f aca="false">IFERROR((P18-O18)/ABS(O18),0)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="98" t="n">
+      <c r="R18" s="100" t="n">
         <f aca="false">IFERROR(J18/B18,0)</f>
         <v>-0.139372822299652</v>
       </c>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="87" t="n">
+      <c r="S18" s="111" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="T18" s="111" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="U18" s="89" t="n">
         <f aca="false">+T18-S18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="89"/>
+      <c r="W18" s="91"/>
     </row>
     <row r="19" ht="13.8" customHeight="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="90" t="n">
+      <c r="B19" s="92" t="n">
         <v>195429</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="80" t="n">
+      <c r="C19" s="108" t="n">
+        <v>44739</v>
+      </c>
+      <c r="D19" s="108" t="n">
+        <v>50961</v>
+      </c>
+      <c r="E19" s="82" t="n">
         <f aca="false">IFERROR((D19-C19)/ABS(C19),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="96" t="n">
+      <c r="F19" s="98" t="n">
         <v>206822</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="83" t="n">
+      <c r="G19" s="109" t="n">
+        <v>46696</v>
+      </c>
+      <c r="H19" s="109" t="n">
+        <v>56058</v>
+      </c>
+      <c r="I19" s="85" t="n">
         <f aca="false">IFERROR((H19-G19)/ABS(G19),0)</f>
         <v>0</v>
       </c>
@@ -7332,50 +7482,66 @@
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="40"/>
-      <c r="M19" s="84" t="n">
+      <c r="M19" s="86" t="n">
         <f aca="false">IFERROR((L19-K19)/ABS(K19),0)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="96" t="n">
+      <c r="N19" s="98" t="n">
         <v>-11059</v>
       </c>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="83" t="n">
+      <c r="O19" s="109" t="n">
+        <v>-1956</v>
+      </c>
+      <c r="P19" s="109" t="n">
+        <v>-5116</v>
+      </c>
+      <c r="Q19" s="85" t="n">
         <f aca="false">IFERROR((P19-O19)/ABS(O19),0)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="98" t="n">
+      <c r="R19" s="100" t="n">
         <f aca="false">IFERROR(J19/B19,0)</f>
         <v>-0.0582973867747366</v>
       </c>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="87" t="n">
+      <c r="S19" s="111" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="T19" s="111" t="n">
+        <v>-10</v>
+      </c>
+      <c r="U19" s="89" t="n">
         <f aca="false">+T19-S19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="89"/>
+      <c r="W19" s="91"/>
     </row>
     <row r="20" ht="13.8" customHeight="1">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="90" t="n">
+      <c r="B20" s="92" t="n">
         <v>40128</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="80" t="n">
+      <c r="C20" s="102" t="n">
+        <v>9140.244</v>
+      </c>
+      <c r="D20" s="102" t="n">
+        <v>8402.172</v>
+      </c>
+      <c r="E20" s="82" t="n">
         <f aca="false">IFERROR((D20-C20)/ABS(C20),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="96" t="n">
+      <c r="F20" s="98" t="n">
         <v>38116</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="83" t="n">
+      <c r="G20" s="99" t="n">
+        <v>9263.589</v>
+      </c>
+      <c r="H20" s="99" t="n">
+        <v>8526.497</v>
+      </c>
+      <c r="I20" s="85" t="n">
         <f aca="false">IFERROR((H20-G20)/ABS(G20),0)</f>
         <v>0</v>
       </c>
@@ -7384,50 +7550,66 @@
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="84" t="n">
+      <c r="M20" s="86" t="n">
         <f aca="false">IFERROR((L20-K20)/ABS(K20),0)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="96" t="n">
+      <c r="N20" s="98" t="n">
         <v>2022</v>
       </c>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="83" t="n">
+      <c r="O20" s="99" t="n">
+        <v>0.000000000000653699316899292</v>
+      </c>
+      <c r="P20" s="99" t="n">
+        <v>-0.000000000000724753590475302</v>
+      </c>
+      <c r="Q20" s="85" t="n">
         <f aca="false">IFERROR((P20-O20)/ABS(O20),0)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="98" t="n">
+      <c r="R20" s="100" t="n">
         <f aca="false">IFERROR(J20/B20,0)</f>
         <v>0.0501395534290271</v>
       </c>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="87" t="n">
+      <c r="S20" s="111" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="T20" s="111" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="U20" s="89" t="n">
         <f aca="false">+T20-S20</f>
         <v>0</v>
       </c>
-      <c r="W20" s="89"/>
+      <c r="W20" s="91"/>
     </row>
     <row r="21" ht="13.8" customHeight="1">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="90" t="n">
+      <c r="B21" s="92" t="n">
         <v>9134.503</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="80" t="n">
+      <c r="C21" s="96" t="n">
+        <v>38940</v>
+      </c>
+      <c r="D21" s="96" t="n">
+        <v>55521</v>
+      </c>
+      <c r="E21" s="82" t="n">
         <f aca="false">IFERROR((D21-C21)/ABS(C21),0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="96" t="n">
+      <c r="F21" s="98" t="n">
         <v>9169.715</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="83" t="n">
+      <c r="G21" s="97" t="n">
+        <v>30246</v>
+      </c>
+      <c r="H21" s="97" t="n">
+        <v>49708</v>
+      </c>
+      <c r="I21" s="85" t="n">
         <f aca="false">IFERROR((H21-G21)/ABS(G21),0)</f>
         <v>0</v>
       </c>
@@ -7437,50 +7619,66 @@
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="84" t="n">
+      <c r="M21" s="86" t="n">
         <f aca="false">IFERROR((L21-K21)/ABS(K21),0)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="83" t="n">
+      <c r="N21" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="99" t="n">
+        <v>6511</v>
+      </c>
+      <c r="P21" s="99" t="n">
+        <v>4618</v>
+      </c>
+      <c r="Q21" s="85" t="n">
         <f aca="false">IFERROR((P21-O21)/ABS(O21),0)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="98" t="n">
+      <c r="R21" s="100" t="n">
         <f aca="false">IFERROR(J21/B21,0)</f>
         <v>-0.00385483479506214</v>
       </c>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="87" t="n">
+      <c r="S21" s="111" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="T21" s="111" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U21" s="89" t="n">
         <f aca="false">+T21-S21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="89"/>
+      <c r="W21" s="91"/>
     </row>
     <row r="22" ht="13.8" customHeight="1">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="90" t="n">
+      <c r="B22" s="92" t="n">
         <v>25406</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="80" t="n">
+      <c r="C22" s="114" t="n">
+        <v>17817</v>
+      </c>
+      <c r="D22" s="114" t="n">
+        <v>16899</v>
+      </c>
+      <c r="E22" s="82" t="n">
         <f aca="false">IFERROR((D22-C22)/ABS(C22),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="96" t="n">
+      <c r="F22" s="98" t="n">
         <v>21815</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="83" t="n">
+      <c r="G22" s="115" t="n">
+        <v>18582</v>
+      </c>
+      <c r="H22" s="115" t="n">
+        <v>19858</v>
+      </c>
+      <c r="I22" s="85" t="n">
         <f aca="false">IFERROR((H22-G22)/ABS(G22),0)</f>
         <v>0</v>
       </c>
@@ -7489,50 +7687,66 @@
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="40"/>
-      <c r="M22" s="84" t="n">
+      <c r="M22" s="86" t="n">
         <f aca="false">IFERROR((L22-K22)/ABS(K22),0)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="96" t="n">
+      <c r="N22" s="98" t="n">
         <v>2595</v>
       </c>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="83" t="n">
+      <c r="O22" s="115" t="n">
+        <v>-654</v>
+      </c>
+      <c r="P22" s="115" t="n">
+        <v>-2884</v>
+      </c>
+      <c r="Q22" s="85" t="n">
         <f aca="false">IFERROR((P22-O22)/ABS(O22),0)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="98" t="n">
+      <c r="R22" s="100" t="n">
         <f aca="false">IFERROR(J22/B22,0)</f>
         <v>0.141344564276155</v>
       </c>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="87" t="n">
+      <c r="S22" s="111" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="T22" s="111" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="U22" s="89" t="n">
         <f aca="false">+T22-S22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="89"/>
+      <c r="W22" s="91"/>
     </row>
     <row r="23" ht="13.8" customHeight="1">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="90" t="n">
+      <c r="B23" s="92" t="n">
         <v>17522</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="80" t="n">
+      <c r="C23" s="26" t="n">
+        <v>12942</v>
+      </c>
+      <c r="D23" s="26" t="n">
+        <v>16748</v>
+      </c>
+      <c r="E23" s="82" t="n">
         <f aca="false">IFERROR((D23-C23)/ABS(C23),0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="96" t="n">
+      <c r="F23" s="98" t="n">
         <v>17302</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="83" t="n">
+      <c r="G23" s="110" t="n">
+        <v>10183</v>
+      </c>
+      <c r="H23" s="110" t="n">
+        <v>15363</v>
+      </c>
+      <c r="I23" s="85" t="n">
         <f aca="false">IFERROR((H23-G23)/ABS(G23),0)</f>
         <v>0</v>
       </c>
@@ -7541,58 +7755,66 @@
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="84" t="n">
+      <c r="M23" s="86" t="n">
         <f aca="false">IFERROR((L23-K23)/ABS(K23),0)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="96" t="n">
+      <c r="N23" s="98" t="n">
         <v>280</v>
       </c>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="83" t="n">
+      <c r="O23" s="110" t="n">
+        <v>2758</v>
+      </c>
+      <c r="P23" s="110" t="n">
+        <v>1348</v>
+      </c>
+      <c r="Q23" s="85" t="n">
         <f aca="false">IFERROR((P23-O23)/ABS(O23),0)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="98" t="n">
+      <c r="R23" s="100" t="n">
         <f aca="false">IFERROR(J23/B23,0)</f>
         <v>0.0125556443328387</v>
       </c>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="87" t="n">
+      <c r="S23" s="111" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="T23" s="111" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="U23" s="89" t="n">
         <f aca="false">+T23-S23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="89"/>
+      <c r="W23" s="91"/>
     </row>
     <row r="24" ht="13.8" customHeight="1">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="95" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="40" t="n">
         <v>6142</v>
       </c>
-      <c r="C24" s="106" t="n">
+      <c r="C24" s="108" t="n">
         <v>9604</v>
       </c>
-      <c r="D24" s="106" t="n">
+      <c r="D24" s="108" t="n">
         <v>10213</v>
       </c>
-      <c r="E24" s="80" t="n">
+      <c r="E24" s="82" t="n">
         <f aca="false">IFERROR((D24-C24)/ABS(C24),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="96" t="n">
+      <c r="F24" s="98" t="n">
         <v>6070</v>
       </c>
-      <c r="G24" s="107" t="n">
+      <c r="G24" s="109" t="n">
         <v>9806</v>
       </c>
-      <c r="H24" s="107" t="n">
+      <c r="H24" s="109" t="n">
         <v>10105</v>
       </c>
-      <c r="I24" s="83" t="n">
+      <c r="I24" s="85" t="n">
         <f aca="false">IFERROR((H24-G24)/ABS(G24),0)</f>
         <v>0</v>
       </c>
@@ -7601,58 +7823,66 @@
       </c>
       <c r="K24" s="26"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="84" t="n">
+      <c r="M24" s="86" t="n">
         <f aca="false">IFERROR((L24-K24)/ABS(K24),0)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="96" t="n">
+      <c r="N24" s="98" t="n">
         <v>73</v>
       </c>
-      <c r="O24" s="107" t="n">
+      <c r="O24" s="109" t="n">
         <v>-67</v>
       </c>
-      <c r="P24" s="107" t="n">
+      <c r="P24" s="109" t="n">
         <v>328</v>
       </c>
-      <c r="Q24" s="83" t="n">
+      <c r="Q24" s="85" t="n">
         <f aca="false">IFERROR((P24-O24)/ABS(O24),0)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="98" t="n">
+      <c r="R24" s="100" t="n">
         <f aca="false">IFERROR(J24/B24,0)</f>
         <v>0.0117225659394334</v>
       </c>
-      <c r="S24" s="109" t="n">
+      <c r="S24" s="111" t="n">
         <v>-2.1</v>
       </c>
-      <c r="T24" s="109" t="n">
+      <c r="T24" s="111" t="n">
         <v>1.1</v>
       </c>
-      <c r="U24" s="87" t="n">
+      <c r="U24" s="89" t="n">
         <f aca="false">+T24-S24</f>
         <v>0</v>
       </c>
-      <c r="W24" s="89"/>
+      <c r="W24" s="91"/>
     </row>
     <row r="25" ht="13.8" customHeight="1">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="90" t="n">
+      <c r="B25" s="92" t="n">
         <v>9022</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="80" t="n">
+      <c r="C25" s="26" t="n">
+        <v>9462</v>
+      </c>
+      <c r="D25" s="26" t="n">
+        <v>8993.191</v>
+      </c>
+      <c r="E25" s="82" t="n">
         <f aca="false">IFERROR((D25-C25)/ABS(C25),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="96" t="n">
+      <c r="F25" s="98" t="n">
         <v>9015</v>
       </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="83" t="n">
+      <c r="G25" s="110" t="n">
+        <v>8646.087</v>
+      </c>
+      <c r="H25" s="110" t="n">
+        <v>8434.033</v>
+      </c>
+      <c r="I25" s="85" t="n">
         <f aca="false">IFERROR((H25-G25)/ABS(G25),0)</f>
         <v>0</v>
       </c>
@@ -7662,58 +7892,66 @@
       </c>
       <c r="K25" s="26"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="84" t="n">
+      <c r="M25" s="86" t="n">
         <f aca="false">IFERROR((L25-K25)/ABS(K25),0)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="96" t="n">
+      <c r="N25" s="98" t="n">
         <v>38</v>
       </c>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="83" t="n">
+      <c r="O25" s="110" t="n">
+        <v>995.913</v>
+      </c>
+      <c r="P25" s="110" t="n">
+        <v>866.633000000001</v>
+      </c>
+      <c r="Q25" s="85" t="n">
         <f aca="false">IFERROR((P25-O25)/ABS(O25),0)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="98" t="n">
+      <c r="R25" s="100" t="n">
         <f aca="false">IFERROR(J25/B25,0)</f>
         <v>0.000775881179339393</v>
       </c>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="87" t="n">
+      <c r="S25" s="111" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="T25" s="111" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U25" s="89" t="n">
         <f aca="false">+T25-S25</f>
         <v>0</v>
       </c>
-      <c r="W25" s="89"/>
+      <c r="W25" s="91"/>
     </row>
     <row r="26" ht="13.8" customHeight="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="90" t="n">
+      <c r="B26" s="92" t="n">
         <v>8289.968</v>
       </c>
-      <c r="C26" s="114" t="n">
+      <c r="C26" s="116" t="n">
         <v>2139</v>
       </c>
-      <c r="D26" s="114" t="n">
+      <c r="D26" s="116" t="n">
         <v>3800</v>
       </c>
-      <c r="E26" s="80" t="n">
+      <c r="E26" s="82" t="n">
         <f aca="false">IFERROR((D26-C26)/ABS(C26),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="96" t="n">
+      <c r="F26" s="98" t="n">
         <v>7739.34</v>
       </c>
-      <c r="G26" s="115" t="n">
+      <c r="G26" s="117" t="n">
         <v>1994</v>
       </c>
-      <c r="H26" s="115" t="n">
+      <c r="H26" s="117" t="n">
         <v>2493</v>
       </c>
-      <c r="I26" s="83" t="n">
+      <c r="I26" s="85" t="n">
         <f aca="false">IFERROR((H26-G26)/ABS(G26),0)</f>
         <v>0</v>
       </c>
@@ -7721,60 +7959,68 @@
         <f aca="false">+B26-F26</f>
         <v>550.628000000001</v>
       </c>
-      <c r="K26" s="114"/>
+      <c r="K26" s="116"/>
       <c r="L26" s="40"/>
-      <c r="M26" s="84" t="n">
+      <c r="M26" s="86" t="n">
         <f aca="false">IFERROR((L26-K26)/ABS(K26),0)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="96" t="n">
+      <c r="N26" s="98" t="n">
         <v>509</v>
       </c>
-      <c r="O26" s="108" t="n">
+      <c r="O26" s="110" t="n">
         <v>180</v>
       </c>
-      <c r="P26" s="108" t="n">
+      <c r="P26" s="110" t="n">
         <v>1378</v>
       </c>
-      <c r="Q26" s="83" t="n">
+      <c r="Q26" s="85" t="n">
         <f aca="false">IFERROR((P26-O26)/ABS(O26),0)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="98" t="n">
+      <c r="R26" s="100" t="n">
         <f aca="false">IFERROR(J26/B26,0)</f>
         <v>0.0664210042789068</v>
       </c>
-      <c r="S26" s="109" t="n">
+      <c r="S26" s="111" t="n">
         <v>6.8</v>
       </c>
-      <c r="T26" s="109" t="n">
+      <c r="T26" s="111" t="n">
         <v>34.4</v>
       </c>
-      <c r="U26" s="87" t="n">
+      <c r="U26" s="89" t="n">
         <f aca="false">+T26-S26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="89"/>
+      <c r="W26" s="91"/>
     </row>
     <row r="27" ht="13.8" customHeight="1">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="90" t="n">
+      <c r="B27" s="92" t="n">
         <v>2037</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="80" t="n">
+      <c r="C27" s="102" t="n">
+        <v>51542</v>
+      </c>
+      <c r="D27" s="102" t="n">
+        <v>59400</v>
+      </c>
+      <c r="E27" s="82" t="n">
         <f aca="false">IFERROR((D27-C27)/ABS(C27),0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="96" t="n">
+      <c r="F27" s="98" t="n">
         <v>2157</v>
       </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="83" t="n">
+      <c r="G27" s="99" t="n">
+        <v>47743</v>
+      </c>
+      <c r="H27" s="99" t="n">
+        <v>58994</v>
+      </c>
+      <c r="I27" s="85" t="n">
         <f aca="false">IFERROR((H27-G27)/ABS(G27),0)</f>
         <v>0</v>
       </c>
@@ -7783,50 +8029,66 @@
       </c>
       <c r="K27" s="26"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="84" t="n">
+      <c r="M27" s="86" t="n">
         <f aca="false">IFERROR((L27-K27)/ABS(K27),0)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="96" t="n">
+      <c r="N27" s="98" t="n">
         <v>-110</v>
       </c>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="83" t="n">
+      <c r="O27" s="99" t="n">
+        <v>8039</v>
+      </c>
+      <c r="P27" s="99" t="n">
+        <v>3152</v>
+      </c>
+      <c r="Q27" s="85" t="n">
         <f aca="false">IFERROR((P27-O27)/ABS(O27),0)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="98" t="n">
+      <c r="R27" s="100" t="n">
         <f aca="false">IFERROR(J27/B27,0)</f>
         <v>-0.0589101620029455</v>
       </c>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="87" t="n">
+      <c r="S27" s="111" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T27" s="111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U27" s="89" t="n">
         <f aca="false">+T27-S27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="89"/>
+      <c r="W27" s="91"/>
     </row>
     <row r="28" ht="13.8" customHeight="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="90" t="n">
+      <c r="B28" s="92" t="n">
         <v>49908</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="80" t="n">
+      <c r="C28" s="114" t="n">
+        <v>4676</v>
+      </c>
+      <c r="D28" s="114" t="n">
+        <v>4736.6</v>
+      </c>
+      <c r="E28" s="82" t="n">
         <f aca="false">IFERROR((D28-C28)/ABS(C28),0)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="96" t="n">
+      <c r="F28" s="98" t="n">
         <v>44541.7</v>
       </c>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="83" t="n">
+      <c r="G28" s="115" t="n">
+        <v>4939</v>
+      </c>
+      <c r="H28" s="115" t="n">
+        <v>5006.014</v>
+      </c>
+      <c r="I28" s="85" t="n">
         <f aca="false">IFERROR((H28-G28)/ABS(G28),0)</f>
         <v>0</v>
       </c>
@@ -7835,50 +8097,58 @@
       </c>
       <c r="K28" s="26"/>
       <c r="L28" s="40"/>
-      <c r="M28" s="84" t="n">
+      <c r="M28" s="86" t="n">
         <f aca="false">IFERROR((L28-K28)/ABS(K28),0)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="96" t="n">
+      <c r="N28" s="98" t="n">
         <v>7408.3</v>
       </c>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="83" t="n">
+      <c r="O28" s="115" t="n">
+        <v>-42</v>
+      </c>
+      <c r="P28" s="115" t="n">
+        <v>12.3370000000002</v>
+      </c>
+      <c r="Q28" s="85" t="n">
         <f aca="false">IFERROR((P28-O28)/ABS(O28),0)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="98" t="n">
+      <c r="R28" s="100" t="n">
         <f aca="false">IFERROR(J28/B28,0)</f>
         <v>0.107523843872726</v>
       </c>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="87" t="n">
+      <c r="S28" s="111" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="T28" s="111" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="U28" s="89" t="n">
         <f aca="false">+T28-S28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="89"/>
+      <c r="W28" s="91"/>
     </row>
     <row r="29" ht="26.25" customHeight="1">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="90" t="n">
+      <c r="B29" s="92" t="n">
         <v>4734</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
-      <c r="E29" s="80" t="n">
+      <c r="E29" s="82" t="n">
         <f aca="false">IFERROR((D29-C29)/ABS(C29),0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="96" t="n">
+      <c r="F29" s="98" t="n">
         <v>3738</v>
       </c>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="83" t="n">
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="85" t="n">
         <f aca="false">IFERROR((H29-G29)/ABS(G29),0)</f>
         <v>0</v>
       </c>
@@ -7888,50 +8158,50 @@
       </c>
       <c r="K29" s="26"/>
       <c r="L29" s="40"/>
-      <c r="M29" s="84" t="n">
+      <c r="M29" s="86" t="n">
         <f aca="false">IFERROR((L29-K29)/ABS(K29),0)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="96" t="n">
+      <c r="N29" s="98" t="n">
         <v>1078</v>
       </c>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="83" t="n">
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="85" t="n">
         <f aca="false">IFERROR((P29-O29)/ABS(O29),0)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="98" t="n">
+      <c r="R29" s="100" t="n">
         <f aca="false">IFERROR(J29/B29,0)</f>
         <v>0.210392902408112</v>
       </c>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="87" t="n">
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="89" t="n">
         <f aca="false">+T29-S29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="89"/>
+      <c r="W29" s="91"/>
     </row>
     <row r="30" ht="13.8" customHeight="1">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="116" t="n">
+      <c r="B30" s="118" t="n">
         <v>38551</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="80" t="n">
+      <c r="E30" s="82" t="n">
         <f aca="false">IFERROR((D30-C30)/ABS(C30),0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="96" t="n">
+      <c r="F30" s="98" t="n">
         <v>36451</v>
       </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="83" t="n">
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="85" t="n">
         <f aca="false">IFERROR((H30-G30)/ABS(G30),0)</f>
         <v>0</v>
       </c>
@@ -7940,239 +8210,239 @@
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="40"/>
-      <c r="M30" s="84" t="n">
+      <c r="M30" s="86" t="n">
         <f aca="false">IFERROR((L30-K30)/ABS(K30),0)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="117" t="n">
+      <c r="N30" s="119" t="n">
         <v>1745</v>
       </c>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="83" t="n">
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="85" t="n">
         <f aca="false">IFERROR((P30-O30)/ABS(O30),0)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="98" t="n">
+      <c r="R30" s="100" t="n">
         <f aca="false">IFERROR(J30/B30,0)</f>
         <v>0.0544732951155612</v>
       </c>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="87" t="n">
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="89" t="n">
         <f aca="false">+T30-S30</f>
         <v>0</v>
       </c>
       <c r="V30" s="39"/>
-      <c r="W30" s="89"/>
+      <c r="W30" s="91"/>
     </row>
     <row r="31" ht="13.8" customHeight="1">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="90" t="n">
+      <c r="B31" s="92" t="n">
         <v>12593.61299</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="80" t="n">
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="82" t="n">
         <f aca="false">IFERROR((D31-C31)/ABS(C31),0)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="96" t="n">
+      <c r="F31" s="98" t="n">
         <v>10619.37</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="83" t="n">
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="85" t="n">
         <f aca="false">IFERROR((H31-G31)/ABS(G31),0)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="119" t="n">
+      <c r="J31" s="121" t="n">
         <f aca="false">+B31-F31</f>
         <v>1974.24299</v>
       </c>
-      <c r="K31" s="114"/>
+      <c r="K31" s="116"/>
       <c r="L31" s="40"/>
-      <c r="M31" s="84" t="n">
+      <c r="M31" s="86" t="n">
         <f aca="false">IFERROR((L31-K31)/ABS(K31),0)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="96" t="n">
+      <c r="N31" s="98" t="n">
         <v>3708.86199</v>
       </c>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="83" t="n">
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="85" t="n">
         <f aca="false">IFERROR((P31-O31)/ABS(O31),0)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="98" t="n">
+      <c r="R31" s="100" t="n">
         <f aca="false">IFERROR(J31/B31,0)</f>
         <v>0.156765416848021</v>
       </c>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="87" t="n">
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="89" t="n">
         <f aca="false">+T31-S31</f>
         <v>0</v>
       </c>
       <c r="V31" s="39"/>
-      <c r="W31" s="89"/>
+      <c r="W31" s="91"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="90" t="n">
+      <c r="B32" s="92" t="n">
         <v>7446</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="80" t="n">
+      <c r="E32" s="82" t="n">
         <f aca="false">IFERROR((D32-C32)/ABS(C32),0)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="96" t="n">
+      <c r="F32" s="98" t="n">
         <v>7635</v>
       </c>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="83" t="n">
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="85" t="n">
         <f aca="false">IFERROR((H32-G32)/ABS(G32),0)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="121" t="n">
+      <c r="J32" s="123" t="n">
         <f aca="false">+B32-F32</f>
         <v>-189</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="40"/>
-      <c r="M32" s="122" t="n">
+      <c r="M32" s="124" t="n">
         <f aca="false">IFERROR((L32-K32)/ABS(K32),0)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="117" t="n">
+      <c r="N32" s="119" t="n">
         <v>-187</v>
       </c>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="123" t="n">
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="125" t="n">
         <f aca="false">IFERROR((P32-O32)/ABS(O32),0)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="124" t="n">
+      <c r="R32" s="126" t="n">
         <f aca="false">IFERROR(J32/B32,0)</f>
         <v>-0.0253827558420629</v>
       </c>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="125" t="n">
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="127" t="n">
         <f aca="false">+T32-S32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="89"/>
+      <c r="W32" s="91"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="127"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="137" t="n">
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43" t="n">
         <f aca="false">IFERROR(J34/B34,0)</f>
         <v>0.0190857387630977</v>
       </c>
-      <c r="S33" s="42" t="n">
+      <c r="S33" s="44" t="n">
         <f aca="false">IFERROR(K34/C34,0)</f>
         <v>0</v>
       </c>
-      <c r="T33" s="42" t="n">
+      <c r="T33" s="44" t="n">
         <f aca="false">IFERROR(L34/D34,0)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="43"/>
+      <c r="U33" s="45"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="45" t="n">
+      <c r="B34" s="47" t="n">
         <f aca="false">SUM(B6:B32)</f>
         <v>802775.68399</v>
       </c>
-      <c r="C34" s="45" t="n">
+      <c r="C34" s="47" t="n">
         <f aca="false">SUM(C6:C32)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="45" t="n">
+      <c r="D34" s="47" t="n">
         <f aca="false">SUM(D6:D32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47" t="n">
+      <c r="E34" s="48"/>
+      <c r="F34" s="49" t="n">
         <f aca="false">SUM(F6:F32)</f>
         <v>787454.117</v>
       </c>
-      <c r="G34" s="47" t="n">
+      <c r="G34" s="49" t="n">
         <f aca="false">SUM(G6:G32)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="47" t="n">
+      <c r="H34" s="49" t="n">
         <f aca="false">SUM(H6:H32)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49" t="n">
+      <c r="I34" s="50"/>
+      <c r="J34" s="51" t="n">
         <f aca="false">+B34-F34</f>
         <v>15321.5669900002</v>
       </c>
-      <c r="K34" s="49" t="n">
+      <c r="K34" s="51" t="n">
         <f aca="false">+C34-G34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="49" t="n">
+      <c r="L34" s="51" t="n">
         <f aca="false">+D34-H34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="50"/>
-      <c r="N34" s="51" t="n">
+      <c r="M34" s="52"/>
+      <c r="N34" s="53" t="n">
         <f aca="false">SUM(N6:N32)</f>
         <v>17870.46999</v>
       </c>
-      <c r="O34" s="51" t="n">
+      <c r="O34" s="53" t="n">
         <f aca="false">SUM(O6:O32)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="51" t="n">
+      <c r="P34" s="53" t="n">
         <f aca="false">SUM(P6:P32)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
-      <c r="D35" s="55"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -8186,10 +8456,10 @@
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="39" t="s">
@@ -8205,16 +8475,16 @@
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
-      <c r="L36" s="57"/>
+      <c r="L36" s="59"/>
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="39" t="s">
@@ -8222,7 +8492,7 @@
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="39"/>
@@ -8329,10 +8599,10 @@
       <c r="R3" s="39"/>
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
-      <c r="U3" s="56"/>
+      <c r="U3" s="58"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="142" t="s">
@@ -8341,24 +8611,24 @@
       <c r="C4" s="142"/>
       <c r="D4" s="142"/>
       <c r="E4" s="142"/>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="64" t="s">
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
       <c r="R4" s="143" t="s">
         <v>103</v>
       </c>
@@ -8373,62 +8643,62 @@
       <c r="Y4" s="144"/>
     </row>
     <row r="5" ht="66" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="145" t="n">
         <v>2022</v>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="71" t="n">
         <v>2023</v>
       </c>
-      <c r="D5" s="69" t="n">
+      <c r="D5" s="71" t="n">
         <v>2024</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="72" t="s">
         <v>87</v>
       </c>
       <c r="F5" s="146" t="n">
         <v>2022</v>
       </c>
-      <c r="G5" s="72" t="n">
+      <c r="G5" s="74" t="n">
         <v>2023</v>
       </c>
-      <c r="H5" s="72" t="n">
+      <c r="H5" s="74" t="n">
         <v>2024</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="75" t="s">
         <v>87</v>
       </c>
       <c r="J5" s="145" t="n">
         <v>2022</v>
       </c>
-      <c r="K5" s="69" t="n">
+      <c r="K5" s="71" t="n">
         <v>2023</v>
       </c>
-      <c r="L5" s="69" t="n">
+      <c r="L5" s="71" t="n">
         <v>2024</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="72" t="s">
         <v>87</v>
       </c>
       <c r="N5" s="147" t="n">
         <v>2022</v>
       </c>
-      <c r="O5" s="72" t="n">
+      <c r="O5" s="74" t="n">
         <v>2023</v>
       </c>
-      <c r="P5" s="72" t="n">
+      <c r="P5" s="74" t="n">
         <v>2024</v>
       </c>
-      <c r="Q5" s="73" t="s">
+      <c r="Q5" s="75" t="s">
         <v>87</v>
       </c>
       <c r="R5" s="145" t="n">
         <v>2022</v>
       </c>
-      <c r="S5" s="69" t="n">
+      <c r="S5" s="71" t="n">
         <v>2023</v>
       </c>
-      <c r="T5" s="69" t="n">
+      <c r="T5" s="71" t="n">
         <v>2024</v>
       </c>
       <c r="U5" s="148" t="s">
@@ -8437,10 +8707,10 @@
       <c r="V5" s="147" t="n">
         <v>2022</v>
       </c>
-      <c r="W5" s="72" t="n">
+      <c r="W5" s="74" t="n">
         <v>2023</v>
       </c>
-      <c r="X5" s="72" t="n">
+      <c r="X5" s="74" t="n">
         <v>2024</v>
       </c>
       <c r="Y5" s="149" t="s">
@@ -8448,17 +8718,17 @@
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="150" t="n">
         <v>76376</v>
       </c>
       <c r="C6" s="151" t="n">
-        <v>1196.12649</v>
+        <v>80464</v>
       </c>
       <c r="D6" s="151" t="n">
-        <v>1889.349</v>
+        <v>63594</v>
       </c>
       <c r="E6" s="152" t="n">
         <f aca="false">IFERROR((D6-C6)/ABS(C6),0)</f>
@@ -8467,13 +8737,13 @@
       <c r="F6" s="153" t="n">
         <v>62300</v>
       </c>
-      <c r="G6" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" s="82" t="n">
-        <v>30.038</v>
-      </c>
-      <c r="I6" s="83" t="n">
+      <c r="G6" s="84" t="n">
+        <v>66698</v>
+      </c>
+      <c r="H6" s="84" t="n">
+        <v>60090</v>
+      </c>
+      <c r="I6" s="85" t="n">
         <f aca="false">IFERROR((H6-G6)/ABS(G6),0)</f>
         <v>0</v>
       </c>
@@ -8481,25 +8751,25 @@
         <v>51209</v>
       </c>
       <c r="K6" s="151" t="n">
-        <v>1166</v>
+        <v>52354</v>
       </c>
       <c r="L6" s="151" t="n">
-        <v>1859.31</v>
-      </c>
-      <c r="M6" s="84" t="n">
+        <v>44043</v>
+      </c>
+      <c r="M6" s="86" t="n">
         <f aca="false">IFERROR((L6-K6)/ABS(K6),0)</f>
         <v>0</v>
       </c>
       <c r="N6" s="154" t="n">
         <v>123655</v>
       </c>
-      <c r="O6" s="82" t="n">
-        <v>1196</v>
-      </c>
-      <c r="P6" s="82" t="n">
-        <v>1889.348</v>
-      </c>
-      <c r="Q6" s="83" t="n">
+      <c r="O6" s="84" t="n">
+        <v>128185</v>
+      </c>
+      <c r="P6" s="84" t="n">
+        <v>112253</v>
+      </c>
+      <c r="Q6" s="85" t="n">
         <f aca="false">IFERROR((P6-O6)/ABS(O6),0)</f>
         <v>0</v>
       </c>
@@ -8508,12 +8778,12 @@
         <v>0.503821115199547</v>
       </c>
       <c r="S6" s="155" t="n">
-        <v>2.5</v>
+        <v>52</v>
       </c>
       <c r="T6" s="155" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U6" s="84" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="U6" s="86" t="n">
         <f aca="false">T6-S6</f>
         <v>0</v>
       </c>
@@ -8522,10 +8792,10 @@
         <v>1.49145657989806</v>
       </c>
       <c r="W6" s="156" t="n">
-        <v>102.6</v>
+        <v>153.7</v>
       </c>
       <c r="X6" s="156" t="n">
-        <v>101.6</v>
+        <v>144.4</v>
       </c>
       <c r="Y6" s="157" t="n">
         <f aca="false">X6-W6</f>
@@ -8534,42 +8804,58 @@
       <c r="AA6" s="40"/>
     </row>
     <row r="7" ht="13.8" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="158" t="n">
         <v>107687</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="40" t="n">
+        <v>20380</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>16334.7</v>
+      </c>
       <c r="E7" s="152" t="n">
         <f aca="false">IFERROR((D7-C7)/ABS(C7),0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="92" t="n">
+      <c r="F7" s="94" t="n">
         <v>42095</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="83" t="n">
+      <c r="G7" s="98" t="n">
+        <v>2973</v>
+      </c>
+      <c r="H7" s="98" t="n">
+        <v>1332</v>
+      </c>
+      <c r="I7" s="85" t="n">
         <f aca="false">IFERROR((H7-G7)/ABS(G7),0)</f>
         <v>0</v>
       </c>
       <c r="J7" s="158" t="n">
         <v>90942</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="84" t="n">
+      <c r="K7" s="40" t="n">
+        <v>11076</v>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>9176</v>
+      </c>
+      <c r="M7" s="86" t="n">
         <f aca="false">IFERROR((L7-K7)/ABS(K7),0)</f>
         <v>0</v>
       </c>
       <c r="N7" s="159" t="n">
         <v>167188</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="83" t="n">
+      <c r="O7" s="98" t="n">
+        <v>27332</v>
+      </c>
+      <c r="P7" s="98" t="n">
+        <v>20775</v>
+      </c>
+      <c r="Q7" s="85" t="n">
         <f aca="false">IFERROR((P7-O7)/ABS(O7),0)</f>
         <v>0</v>
       </c>
@@ -8577,9 +8863,13 @@
         <f aca="false">IFERROR(F7/N7,0)</f>
         <v>0.251782424575927</v>
       </c>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="84" t="n">
+      <c r="S7" s="155" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="T7" s="155" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U7" s="86" t="n">
         <f aca="false">T7-S7</f>
         <v>0</v>
       </c>
@@ -8587,8 +8877,12 @@
         <f aca="false">IFERROR(B7/J7,0)</f>
         <v>1.18412834553891</v>
       </c>
-      <c r="W7" s="156"/>
-      <c r="X7" s="156"/>
+      <c r="W7" s="156" t="n">
+        <v>184</v>
+      </c>
+      <c r="X7" s="156" t="n">
+        <v>178</v>
+      </c>
       <c r="Y7" s="157" t="n">
         <f aca="false">X7-W7</f>
         <v>0</v>
@@ -8596,42 +8890,42 @@
       <c r="AA7" s="40"/>
     </row>
     <row r="8" ht="13.8" customHeight="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="150" t="n">
         <v>17750</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="152" t="n">
         <f aca="false">IFERROR((D8-C8)/ABS(C8),0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="105" t="n">
+      <c r="F8" s="107" t="n">
         <v>600</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="83" t="n">
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="85" t="n">
         <f aca="false">IFERROR((H8-G8)/ABS(G8),0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="150" t="n">
         <v>11727</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="84" t="n">
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="86" t="n">
         <f aca="false">IFERROR((L8-K8)/ABS(K8),0)</f>
         <v>0</v>
       </c>
       <c r="N8" s="154" t="n">
         <v>29332</v>
       </c>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="83" t="n">
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="85" t="n">
         <f aca="false">IFERROR((P8-O8)/ABS(O8),0)</f>
         <v>0</v>
       </c>
@@ -8641,7 +8935,7 @@
       </c>
       <c r="S8" s="155"/>
       <c r="T8" s="155"/>
-      <c r="U8" s="84" t="n">
+      <c r="U8" s="86" t="n">
         <f aca="false">T8-S8</f>
         <v>0</v>
       </c>
@@ -8658,42 +8952,58 @@
       <c r="AA8" s="40"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="104" t="n">
+      <c r="B9" s="106" t="n">
         <v>402</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="C9" s="96" t="n">
+        <v>3555</v>
+      </c>
+      <c r="D9" s="96" t="n">
+        <v>4472</v>
+      </c>
       <c r="E9" s="152" t="n">
         <f aca="false">IFERROR((D9-C9)/ABS(C9),0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="105" t="n">
+      <c r="F9" s="107" t="n">
         <v>-2173</v>
       </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="83" t="n">
+      <c r="G9" s="99" t="n">
+        <v>1863</v>
+      </c>
+      <c r="H9" s="160" t="n">
+        <v>2615</v>
+      </c>
+      <c r="I9" s="85" t="n">
         <f aca="false">IFERROR((H9-G9)/ABS(G9),0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="94" t="n">
+      <c r="J9" s="96" t="n">
         <v>84</v>
       </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="84" t="n">
+      <c r="K9" s="102" t="n">
+        <v>1649</v>
+      </c>
+      <c r="L9" s="161" t="n">
+        <v>2029</v>
+      </c>
+      <c r="M9" s="86" t="n">
         <f aca="false">IFERROR((L9-K9)/ABS(K9),0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="105" t="n">
+      <c r="N9" s="107" t="n">
         <v>477</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="83" t="n">
+      <c r="O9" s="97" t="n">
+        <v>4112</v>
+      </c>
+      <c r="P9" s="97" t="n">
+        <v>5244</v>
+      </c>
+      <c r="Q9" s="85" t="n">
         <f aca="false">IFERROR((P9-O9)/ABS(O9),0)</f>
         <v>0</v>
       </c>
@@ -8701,9 +9011,13 @@
         <f aca="false">IFERROR(F9/N9,0)</f>
         <v>-4.55555555555556</v>
       </c>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="84" t="n">
+      <c r="S9" s="155" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="T9" s="155" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="U9" s="86" t="n">
         <f aca="false">T9-S9</f>
         <v>0</v>
       </c>
@@ -8711,8 +9025,12 @@
         <f aca="false">IFERROR(B9/J9,0)</f>
         <v>4.78571428571429</v>
       </c>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
+      <c r="W9" s="156" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="X9" s="156" t="n">
+        <v>220.4</v>
+      </c>
       <c r="Y9" s="157" t="n">
         <f aca="false">X9-W9</f>
         <v>0</v>
@@ -8721,42 +9039,58 @@
       <c r="AE9" s="39"/>
     </row>
     <row r="10" ht="13.8" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="95" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="150" t="n">
         <v>1938</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="106" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D10" s="106" t="n">
+        <v>737</v>
+      </c>
       <c r="E10" s="152" t="n">
         <f aca="false">IFERROR((D10-C10)/ABS(C10),0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="105" t="n">
+      <c r="F10" s="107" t="n">
         <v>634.1</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="83" t="n">
+      <c r="G10" s="107" t="n">
+        <v>918</v>
+      </c>
+      <c r="H10" s="107" t="n">
+        <v>575</v>
+      </c>
+      <c r="I10" s="85" t="n">
         <f aca="false">IFERROR((H10-G10)/ABS(G10),0)</f>
         <v>0</v>
       </c>
       <c r="J10" s="150" t="n">
         <v>1402.2</v>
       </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="84" t="n">
+      <c r="K10" s="106" t="n">
+        <v>682</v>
+      </c>
+      <c r="L10" s="106" t="n">
+        <v>617</v>
+      </c>
+      <c r="M10" s="86" t="n">
         <f aca="false">IFERROR((L10-K10)/ABS(K10),0)</f>
         <v>0</v>
       </c>
       <c r="N10" s="154" t="n">
         <v>2636.3</v>
       </c>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="83" t="n">
+      <c r="O10" s="107" t="n">
+        <v>1600</v>
+      </c>
+      <c r="P10" s="107" t="n">
+        <v>1191</v>
+      </c>
+      <c r="Q10" s="85" t="n">
         <f aca="false">IFERROR((P10-O10)/ABS(O10),0)</f>
         <v>0</v>
       </c>
@@ -8764,9 +9098,13 @@
         <f aca="false">IFERROR(F10/N10,0)</f>
         <v>0.240526495467132</v>
       </c>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="84" t="n">
+      <c r="S10" s="155" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="T10" s="155" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="U10" s="86" t="n">
         <f aca="false">T10-S10</f>
         <v>0</v>
       </c>
@@ -8774,8 +9112,12 @@
         <f aca="false">IFERROR(B10/J10,0)</f>
         <v>1.38211382113821</v>
       </c>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
+      <c r="W10" s="156" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="X10" s="156" t="n">
+        <v>119.4</v>
+      </c>
       <c r="Y10" s="157" t="n">
         <f aca="false">X10-W10</f>
         <v>0</v>
@@ -8783,42 +9125,58 @@
       <c r="AA10" s="40"/>
     </row>
     <row r="11" ht="13.8" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="95" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="150" t="n">
         <v>1200</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="108" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D11" s="108" t="n">
+        <v>2110</v>
+      </c>
       <c r="E11" s="152" t="n">
         <f aca="false">IFERROR((D11-C11)/ABS(C11),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="105" t="n">
+      <c r="F11" s="107" t="n">
         <v>909</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="83" t="n">
+      <c r="G11" s="110" t="n">
+        <v>1538</v>
+      </c>
+      <c r="H11" s="110" t="n">
+        <v>1541</v>
+      </c>
+      <c r="I11" s="85" t="n">
         <f aca="false">IFERROR((H11-G11)/ABS(G11),0)</f>
         <v>0</v>
       </c>
       <c r="J11" s="150" t="n">
         <v>533</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="84" t="n">
+      <c r="K11" s="26" t="n">
+        <v>623</v>
+      </c>
+      <c r="L11" s="26" t="n">
+        <v>665</v>
+      </c>
+      <c r="M11" s="86" t="n">
         <f aca="false">IFERROR((L11-K11)/ABS(K11),0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="154" t="n">
         <v>1442</v>
       </c>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="83" t="n">
+      <c r="O11" s="109" t="n">
+        <v>2161</v>
+      </c>
+      <c r="P11" s="109" t="n">
+        <v>2206</v>
+      </c>
+      <c r="Q11" s="85" t="n">
         <f aca="false">IFERROR((P11-O11)/ABS(O11),0)</f>
         <v>0</v>
       </c>
@@ -8826,9 +9184,13 @@
         <f aca="false">IFERROR(F11/N11,0)</f>
         <v>0.630374479889043</v>
       </c>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="84" t="n">
+      <c r="S11" s="155" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="T11" s="155" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="U11" s="86" t="n">
         <f aca="false">T11-S11</f>
         <v>0</v>
       </c>
@@ -8836,8 +9198,12 @@
         <f aca="false">IFERROR(B11/J11,0)</f>
         <v>2.25140712945591</v>
       </c>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
+      <c r="W11" s="156" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="X11" s="156" t="n">
+        <v>317.3</v>
+      </c>
       <c r="Y11" s="157" t="n">
         <f aca="false">X11-W11</f>
         <v>0</v>
@@ -8845,42 +9211,58 @@
       <c r="AA11" s="40"/>
     </row>
     <row r="12" ht="13.8" customHeight="1">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="95" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="150" t="n">
         <v>2990</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="108" t="n">
+        <v>8847</v>
+      </c>
+      <c r="D12" s="108" t="n">
+        <v>15069</v>
+      </c>
       <c r="E12" s="152" t="n">
         <f aca="false">IFERROR((D12-C12)/ABS(C12),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="105" t="n">
+      <c r="F12" s="107" t="n">
         <v>2567</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="83" t="n">
+      <c r="G12" s="109" t="n">
+        <v>4302</v>
+      </c>
+      <c r="H12" s="109" t="n">
+        <v>8533</v>
+      </c>
+      <c r="I12" s="85" t="n">
         <f aca="false">IFERROR((H12-G12)/ABS(G12),0)</f>
         <v>0</v>
       </c>
       <c r="J12" s="150" t="n">
         <v>507</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="84" t="n">
+      <c r="K12" s="26" t="n">
+        <v>11285</v>
+      </c>
+      <c r="L12" s="26" t="n">
+        <v>17109</v>
+      </c>
+      <c r="M12" s="86" t="n">
         <f aca="false">IFERROR((L12-K12)/ABS(K12),0)</f>
         <v>0</v>
       </c>
       <c r="N12" s="154" t="n">
         <v>3074</v>
       </c>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="83" t="n">
+      <c r="O12" s="109" t="n">
+        <v>17900</v>
+      </c>
+      <c r="P12" s="109" t="n">
+        <v>25642</v>
+      </c>
+      <c r="Q12" s="85" t="n">
         <f aca="false">IFERROR((P12-O12)/ABS(O12),0)</f>
         <v>0</v>
       </c>
@@ -8888,9 +9270,13 @@
         <f aca="false">IFERROR(F12/N12,0)</f>
         <v>0.835068314899154</v>
       </c>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="84" t="n">
+      <c r="S12" s="155" t="n">
+        <v>24</v>
+      </c>
+      <c r="T12" s="155" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="U12" s="86" t="n">
         <f aca="false">T12-S12</f>
         <v>0</v>
       </c>
@@ -8898,8 +9284,12 @@
         <f aca="false">IFERROR(B12/J12,0)</f>
         <v>5.8974358974359</v>
       </c>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
+      <c r="W12" s="156" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="X12" s="156" t="n">
+        <v>88.1</v>
+      </c>
       <c r="Y12" s="157" t="n">
         <f aca="false">X12-W12</f>
         <v>0</v>
@@ -8907,58 +9297,58 @@
       <c r="AA12" s="40"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="104" t="n">
+      <c r="B13" s="106" t="n">
         <v>1498</v>
       </c>
-      <c r="C13" s="106" t="n">
+      <c r="C13" s="108" t="n">
         <v>20113.88</v>
       </c>
-      <c r="D13" s="106" t="n">
+      <c r="D13" s="108" t="n">
         <v>21407.375</v>
       </c>
       <c r="E13" s="152" t="n">
         <f aca="false">IFERROR((D13-C13)/ABS(C13),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="105" t="n">
+      <c r="F13" s="107" t="n">
         <v>680</v>
       </c>
-      <c r="G13" s="107" t="n">
+      <c r="G13" s="109" t="n">
         <v>19727.09</v>
       </c>
-      <c r="H13" s="107" t="n">
+      <c r="H13" s="109" t="n">
         <v>20444.635</v>
       </c>
-      <c r="I13" s="83" t="n">
+      <c r="I13" s="85" t="n">
         <f aca="false">IFERROR((H13-G13)/ABS(G13),0)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="94" t="n">
+      <c r="J13" s="96" t="n">
         <v>4318</v>
       </c>
-      <c r="K13" s="106" t="n">
+      <c r="K13" s="108" t="n">
         <v>1809.94</v>
       </c>
-      <c r="L13" s="106" t="n">
+      <c r="L13" s="108" t="n">
         <v>2264.427</v>
       </c>
-      <c r="M13" s="84" t="n">
+      <c r="M13" s="86" t="n">
         <f aca="false">IFERROR((L13-K13)/ABS(K13),0)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="105" t="n">
+      <c r="N13" s="107" t="n">
         <v>8498</v>
       </c>
-      <c r="O13" s="107" t="n">
+      <c r="O13" s="109" t="n">
         <v>21537.03</v>
       </c>
-      <c r="P13" s="107" t="n">
+      <c r="P13" s="109" t="n">
         <v>22709.062</v>
       </c>
-      <c r="Q13" s="83" t="n">
+      <c r="Q13" s="85" t="n">
         <f aca="false">IFERROR((P13-O13)/ABS(O13),0)</f>
         <v>0</v>
       </c>
@@ -8966,13 +9356,13 @@
         <f aca="false">IFERROR(F13/N13,0)</f>
         <v>0.0800188279595199</v>
       </c>
-      <c r="S13" s="109" t="n">
+      <c r="S13" s="111" t="n">
         <v>91.6</v>
       </c>
       <c r="T13" s="155" t="n">
         <v>90</v>
       </c>
-      <c r="U13" s="84" t="n">
+      <c r="U13" s="86" t="n">
         <f aca="false">T13-S13</f>
         <v>0</v>
       </c>
@@ -8994,7 +9384,7 @@
       <c r="AE13" s="39"/>
     </row>
     <row r="14" ht="13.8" customHeight="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="95" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="150" t="n">
@@ -9010,16 +9400,16 @@
         <f aca="false">IFERROR((D14-C14)/ABS(C14),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="105" t="n">
+      <c r="F14" s="107" t="n">
         <v>18390</v>
       </c>
-      <c r="G14" s="108" t="n">
+      <c r="G14" s="110" t="n">
         <v>4108</v>
       </c>
-      <c r="H14" s="108" t="n">
+      <c r="H14" s="110" t="n">
         <v>4501</v>
       </c>
-      <c r="I14" s="83" t="n">
+      <c r="I14" s="85" t="n">
         <f aca="false">IFERROR((H14-G14)/ABS(G14),0)</f>
         <v>0</v>
       </c>
@@ -9032,20 +9422,20 @@
       <c r="L14" s="26" t="n">
         <v>702</v>
       </c>
-      <c r="M14" s="84" t="n">
+      <c r="M14" s="86" t="n">
         <f aca="false">IFERROR((L14-K14)/ABS(K14),0)</f>
         <v>0</v>
       </c>
       <c r="N14" s="154" t="n">
         <v>20259</v>
       </c>
-      <c r="O14" s="108" t="n">
+      <c r="O14" s="110" t="n">
         <v>5159</v>
       </c>
-      <c r="P14" s="108" t="n">
+      <c r="P14" s="110" t="n">
         <v>6103</v>
       </c>
-      <c r="Q14" s="83" t="n">
+      <c r="Q14" s="85" t="n">
         <f aca="false">IFERROR((P14-O14)/ABS(O14),0)</f>
         <v>0</v>
       </c>
@@ -9053,13 +9443,13 @@
         <f aca="false">IFERROR(F14/N14,0)</f>
         <v>0.907744706056567</v>
       </c>
-      <c r="S14" s="109" t="n">
+      <c r="S14" s="111" t="n">
         <v>79.6</v>
       </c>
       <c r="T14" s="155" t="n">
         <v>73.8</v>
       </c>
-      <c r="U14" s="84" t="n">
+      <c r="U14" s="86" t="n">
         <f aca="false">T14-S14</f>
         <v>0</v>
       </c>
@@ -9080,42 +9470,58 @@
       <c r="AA14" s="40"/>
     </row>
     <row r="15" ht="13.8" customHeight="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="95" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="150" t="n">
         <v>4926</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="108" t="n">
+        <v>13654</v>
+      </c>
+      <c r="D15" s="108" t="n">
+        <v>16609</v>
+      </c>
       <c r="E15" s="152" t="n">
         <f aca="false">IFERROR((D15-C15)/ABS(C15),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="105" t="n">
+      <c r="F15" s="107" t="n">
         <v>3446</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="83" t="n">
+      <c r="G15" s="109" t="n">
+        <v>1513</v>
+      </c>
+      <c r="H15" s="109" t="n">
+        <v>4570</v>
+      </c>
+      <c r="I15" s="85" t="n">
         <f aca="false">IFERROR((H15-G15)/ABS(G15),0)</f>
         <v>0</v>
       </c>
       <c r="J15" s="150" t="n">
         <v>684</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="84" t="n">
+      <c r="K15" s="26" t="n">
+        <v>12233</v>
+      </c>
+      <c r="L15" s="26" t="n">
+        <v>12096</v>
+      </c>
+      <c r="M15" s="86" t="n">
         <f aca="false">IFERROR((L15-K15)/ABS(K15),0)</f>
         <v>0</v>
       </c>
       <c r="N15" s="154" t="n">
         <v>4953</v>
       </c>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="83" t="n">
+      <c r="O15" s="109" t="n">
+        <v>13746</v>
+      </c>
+      <c r="P15" s="109" t="n">
+        <v>16666</v>
+      </c>
+      <c r="Q15" s="85" t="n">
         <f aca="false">IFERROR((P15-O15)/ABS(O15),0)</f>
         <v>0</v>
       </c>
@@ -9123,9 +9529,13 @@
         <f aca="false">IFERROR(F15/N15,0)</f>
         <v>0.695739955582475</v>
       </c>
-      <c r="S15" s="109"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="84" t="n">
+      <c r="S15" s="111" t="n">
+        <v>11</v>
+      </c>
+      <c r="T15" s="155" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="U15" s="86" t="n">
         <f aca="false">T15-S15</f>
         <v>0</v>
       </c>
@@ -9133,8 +9543,12 @@
         <f aca="false">IFERROR(B15/J15,0)</f>
         <v>7.20175438596491</v>
       </c>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
+      <c r="W15" s="163" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="X15" s="163" t="n">
+        <v>137.3</v>
+      </c>
       <c r="Y15" s="157" t="n">
         <f aca="false">X15-W15</f>
         <v>0</v>
@@ -9142,42 +9556,58 @@
       <c r="AA15" s="40"/>
     </row>
     <row r="16" ht="13.8" customHeight="1">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="112" t="s">
         <v>91</v>
       </c>
       <c r="B16" s="150" t="n">
         <v>9823</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="108" t="n">
+        <v>2128</v>
+      </c>
+      <c r="D16" s="108" t="n">
+        <v>2213</v>
+      </c>
       <c r="E16" s="152" t="n">
         <f aca="false">IFERROR((D16-C16)/ABS(C16),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="105" t="n">
+      <c r="F16" s="107" t="n">
         <v>443</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="83" t="n">
+      <c r="G16" s="109" t="n">
+        <v>1488</v>
+      </c>
+      <c r="H16" s="109" t="n">
+        <v>1586</v>
+      </c>
+      <c r="I16" s="85" t="n">
         <f aca="false">IFERROR((H16-G16)/ABS(G16),0)</f>
         <v>0</v>
       </c>
       <c r="J16" s="150" t="n">
         <v>2880</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="84" t="n">
+      <c r="K16" s="26" t="n">
+        <v>652</v>
+      </c>
+      <c r="L16" s="26" t="n">
+        <v>627</v>
+      </c>
+      <c r="M16" s="86" t="n">
         <f aca="false">IFERROR((L16-K16)/ABS(K16),0)</f>
         <v>0</v>
       </c>
       <c r="N16" s="154" t="n">
         <v>9823</v>
       </c>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="83" t="n">
+      <c r="O16" s="109" t="n">
+        <v>2140</v>
+      </c>
+      <c r="P16" s="109" t="n">
+        <v>2213</v>
+      </c>
+      <c r="Q16" s="85" t="n">
         <f aca="false">IFERROR((P16-O16)/ABS(O16),0)</f>
         <v>0</v>
       </c>
@@ -9185,9 +9615,13 @@
         <f aca="false">IFERROR(F16/N16,0)</f>
         <v>0.0450982388272422</v>
       </c>
-      <c r="S16" s="109"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="84" t="n">
+      <c r="S16" s="111" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="T16" s="155" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="U16" s="86" t="n">
         <f aca="false">T16-S16</f>
         <v>0</v>
       </c>
@@ -9195,8 +9629,12 @@
         <f aca="false">IFERROR(B16/J16,0)</f>
         <v>3.41076388888889</v>
       </c>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
+      <c r="W16" s="163" t="n">
+        <v>326.4</v>
+      </c>
+      <c r="X16" s="163" t="n">
+        <v>353</v>
+      </c>
       <c r="Y16" s="157" t="n">
         <f aca="false">X16-W16</f>
         <v>0</v>
@@ -9204,42 +9642,58 @@
       <c r="AA16" s="40"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="150" t="n">
         <v>1850.988</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="26" t="n">
+        <v>230</v>
+      </c>
+      <c r="D17" s="26" t="n">
+        <v>252</v>
+      </c>
       <c r="E17" s="152" t="n">
         <f aca="false">IFERROR((D17-C17)/ABS(C17),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="105" t="n">
+      <c r="F17" s="107" t="n">
         <v>1513.6</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="83" t="n">
+      <c r="G17" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="110" t="n">
+        <v>32</v>
+      </c>
+      <c r="I17" s="85" t="n">
         <f aca="false">IFERROR((H17-G17)/ABS(G17),0)</f>
         <v>0</v>
       </c>
       <c r="J17" s="150" t="n">
         <v>374</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="84" t="n">
+      <c r="K17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26" t="n">
+        <v>926</v>
+      </c>
+      <c r="M17" s="86" t="n">
         <f aca="false">IFERROR((L17-K17)/ABS(K17),0)</f>
         <v>0</v>
       </c>
       <c r="N17" s="154" t="n">
         <v>1887.6</v>
       </c>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="83" t="n">
+      <c r="O17" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="110" t="n">
+        <v>958</v>
+      </c>
+      <c r="Q17" s="85" t="n">
         <f aca="false">IFERROR((P17-O17)/ABS(O17),0)</f>
         <v>0</v>
       </c>
@@ -9247,9 +9701,11 @@
         <f aca="false">IFERROR(F17/N17,0)</f>
         <v>0.801864801864802</v>
       </c>
-      <c r="S17" s="109"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="84" t="n">
+      <c r="S17" s="111"/>
+      <c r="T17" s="155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U17" s="86" t="n">
         <f aca="false">T17-S17</f>
         <v>0</v>
       </c>
@@ -9258,7 +9714,9 @@
         <v>4.94916577540107</v>
       </c>
       <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
+      <c r="X17" s="163" t="n">
+        <v>27.2</v>
+      </c>
       <c r="Y17" s="157" t="n">
         <f aca="false">X17-W17</f>
         <v>0</v>
@@ -9266,42 +9724,58 @@
       <c r="AA17" s="40"/>
     </row>
     <row r="18" ht="13.8" customHeight="1">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="112" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="150" t="n">
         <v>60</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="26" t="n">
+        <v>53912</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>75850</v>
+      </c>
       <c r="E18" s="152" t="n">
         <f aca="false">IFERROR((D18-C18)/ABS(C18),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="105" t="n">
+      <c r="F18" s="107" t="n">
         <v>-96</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="83" t="n">
+      <c r="G18" s="110" t="n">
+        <v>21777.49</v>
+      </c>
+      <c r="H18" s="110" t="n">
+        <v>17038.6</v>
+      </c>
+      <c r="I18" s="85" t="n">
         <f aca="false">IFERROR((H18-G18)/ABS(G18),0)</f>
         <v>0</v>
       </c>
       <c r="J18" s="150" t="n">
         <v>156</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="84" t="n">
+      <c r="K18" s="26" t="n">
+        <v>42689</v>
+      </c>
+      <c r="L18" s="26" t="n">
+        <v>68442</v>
+      </c>
+      <c r="M18" s="86" t="n">
         <f aca="false">IFERROR((L18-K18)/ABS(K18),0)</f>
         <v>0</v>
       </c>
       <c r="N18" s="154" t="n">
         <v>60</v>
       </c>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="83" t="n">
+      <c r="O18" s="110" t="n">
+        <v>64467</v>
+      </c>
+      <c r="P18" s="110" t="n">
+        <v>85480.6</v>
+      </c>
+      <c r="Q18" s="85" t="n">
         <f aca="false">IFERROR((P18-O18)/ABS(O18),0)</f>
         <v>0</v>
       </c>
@@ -9309,17 +9783,25 @@
         <f aca="false">IFERROR(F18/N18,0)</f>
         <v>-1.6</v>
       </c>
-      <c r="S18" s="109"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="84" t="s">
+      <c r="S18" s="111" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="T18" s="155" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="U18" s="86" t="s">
         <v>107</v>
       </c>
       <c r="V18" s="156" t="n">
         <f aca="false">IFERROR(B18/J18,0)</f>
         <v>0.384615384615385</v>
       </c>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
+      <c r="W18" s="163" t="n">
+        <v>126.3</v>
+      </c>
+      <c r="X18" s="163" t="n">
+        <v>110.8</v>
+      </c>
       <c r="Y18" s="157" t="n">
         <f aca="false">X18-W18</f>
         <v>0</v>
@@ -9327,42 +9809,58 @@
       <c r="AA18" s="40"/>
     </row>
     <row r="19" ht="13.8" customHeight="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="95" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="150" t="n">
         <v>61283</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
+      <c r="C19" s="108" t="n">
+        <v>9281</v>
+      </c>
+      <c r="D19" s="108" t="n">
+        <v>8106</v>
+      </c>
       <c r="E19" s="152" t="n">
         <f aca="false">IFERROR((D19-C19)/ABS(C19),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="105" t="n">
+      <c r="F19" s="107" t="n">
         <v>22845</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="83" t="n">
+      <c r="G19" s="109" t="n">
+        <v>4663</v>
+      </c>
+      <c r="H19" s="109" t="n">
+        <v>2547</v>
+      </c>
+      <c r="I19" s="85" t="n">
         <f aca="false">IFERROR((H19-G19)/ABS(G19),0)</f>
         <v>0</v>
       </c>
       <c r="J19" s="150" t="n">
         <v>54219</v>
       </c>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="84" t="n">
+      <c r="K19" s="108" t="n">
+        <v>7513</v>
+      </c>
+      <c r="L19" s="108" t="n">
+        <v>8072</v>
+      </c>
+      <c r="M19" s="86" t="n">
         <f aca="false">IFERROR((L19-K19)/ABS(K19),0)</f>
         <v>0</v>
       </c>
       <c r="N19" s="154" t="n">
         <v>77064</v>
       </c>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="83" t="n">
+      <c r="O19" s="109" t="n">
+        <v>12176</v>
+      </c>
+      <c r="P19" s="109" t="n">
+        <v>10619</v>
+      </c>
+      <c r="Q19" s="85" t="n">
         <f aca="false">IFERROR((P19-O19)/ABS(O19),0)</f>
         <v>0</v>
       </c>
@@ -9370,9 +9868,13 @@
         <f aca="false">IFERROR(F19/N19,0)</f>
         <v>0.296441918405481</v>
       </c>
-      <c r="S19" s="109"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="84" t="n">
+      <c r="S19" s="111" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="T19" s="155" t="n">
+        <v>24</v>
+      </c>
+      <c r="U19" s="86" t="n">
         <f aca="false">T19-S19</f>
         <v>0</v>
       </c>
@@ -9380,8 +9882,12 @@
         <f aca="false">IFERROR(B19/J19,0)</f>
         <v>1.13028643095594</v>
       </c>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
+      <c r="W19" s="163" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="X19" s="163" t="n">
+        <v>100.4</v>
+      </c>
       <c r="Y19" s="157" t="n">
         <f aca="false">X19-W19</f>
         <v>0</v>
@@ -9389,42 +9895,58 @@
       <c r="AA19" s="40"/>
     </row>
     <row r="20" ht="13.8" customHeight="1">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="95" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="150" t="n">
         <v>14231</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="102" t="n">
+        <v>2003.96</v>
+      </c>
+      <c r="D20" s="102" t="n">
+        <v>2218.026</v>
+      </c>
       <c r="E20" s="152" t="n">
         <f aca="false">IFERROR((D20-C20)/ABS(C20),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="105" t="n">
+      <c r="F20" s="107" t="n">
         <v>6619</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="83" t="n">
+      <c r="G20" s="99" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="99" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="85" t="n">
         <f aca="false">IFERROR((H20-G20)/ABS(G20),0)</f>
         <v>0</v>
       </c>
       <c r="J20" s="150" t="n">
         <v>10724</v>
       </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="84" t="n">
+      <c r="K20" s="102" t="n">
+        <v>2243.96</v>
+      </c>
+      <c r="L20" s="102" t="n">
+        <v>2338027</v>
+      </c>
+      <c r="M20" s="86" t="n">
         <f aca="false">IFERROR((L20-K20)/ABS(K20),0)</f>
         <v>0</v>
       </c>
       <c r="N20" s="154" t="n">
         <v>17343</v>
       </c>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="83" t="n">
+      <c r="O20" s="97" t="n">
+        <v>2273.96</v>
+      </c>
+      <c r="P20" s="97" t="n">
+        <v>2368027</v>
+      </c>
+      <c r="Q20" s="85" t="n">
         <f aca="false">IFERROR((P20-O20)/ABS(O20),0)</f>
         <v>0</v>
       </c>
@@ -9432,9 +9954,13 @@
         <f aca="false">IFERROR(F20/N20,0)</f>
         <v>0.381652539929655</v>
       </c>
-      <c r="S20" s="109"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="84" t="n">
+      <c r="S20" s="111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="86" t="n">
         <f aca="false">T20-S20</f>
         <v>0</v>
       </c>
@@ -9442,8 +9968,12 @@
         <f aca="false">IFERROR(B20/J20,0)</f>
         <v>1.32702349869452</v>
       </c>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
+      <c r="W20" s="163" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="X20" s="163" t="n">
+        <v>0.1</v>
+      </c>
       <c r="Y20" s="157" t="n">
         <f aca="false">X20-W20</f>
         <v>0</v>
@@ -9451,42 +9981,58 @@
       <c r="AA20" s="40"/>
     </row>
     <row r="21" ht="13.8" customHeight="1">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="113" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="150" t="n">
         <v>2417</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="96" t="n">
+        <v>9412</v>
+      </c>
+      <c r="D21" s="96" t="n">
+        <v>17279</v>
+      </c>
       <c r="E21" s="152" t="n">
         <f aca="false">IFERROR((D21-C21)/ABS(C21),0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="105" t="n">
+      <c r="F21" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="83" t="n">
+      <c r="G21" s="99" t="n">
+        <v>15865</v>
+      </c>
+      <c r="H21" s="99" t="n">
+        <v>20483</v>
+      </c>
+      <c r="I21" s="85" t="n">
         <f aca="false">IFERROR((H21-G21)/ABS(G21),0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="150" t="n">
         <v>2777.29</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="84" t="n">
+      <c r="K21" s="96" t="n">
+        <v>6064</v>
+      </c>
+      <c r="L21" s="96" t="n">
+        <v>8499</v>
+      </c>
+      <c r="M21" s="86" t="n">
         <f aca="false">IFERROR((L21-K21)/ABS(K21),0)</f>
         <v>0</v>
       </c>
       <c r="N21" s="154" t="n">
         <v>2807.29</v>
       </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="83" t="n">
+      <c r="O21" s="97" t="n">
+        <v>23169</v>
+      </c>
+      <c r="P21" s="97" t="n">
+        <v>29346</v>
+      </c>
+      <c r="Q21" s="85" t="n">
         <f aca="false">IFERROR((P21-O21)/ABS(O21),0)</f>
         <v>0</v>
       </c>
@@ -9494,9 +10040,13 @@
         <f aca="false">IFERROR(F21/N21,0)</f>
         <v>0.0106864627452098</v>
       </c>
-      <c r="S21" s="109"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="84" t="n">
+      <c r="S21" s="111" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="T21" s="155" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="U21" s="86" t="n">
         <f aca="false">T21-S21</f>
         <v>0</v>
       </c>
@@ -9504,8 +10054,12 @@
         <f aca="false">IFERROR(B21/J21,0)</f>
         <v>0.870272819907176</v>
       </c>
-      <c r="W21" s="163"/>
-      <c r="X21" s="163"/>
+      <c r="W21" s="163" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="X21" s="163" t="n">
+        <v>203.3</v>
+      </c>
       <c r="Y21" s="157" t="n">
         <f aca="false">X21-W21</f>
         <v>0</v>
@@ -9513,42 +10067,58 @@
       <c r="AA21" s="40"/>
     </row>
     <row r="22" ht="13.8" customHeight="1">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="113" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="150" t="n">
         <v>2828</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
+      <c r="C22" s="114" t="n">
+        <v>4728</v>
+      </c>
+      <c r="D22" s="114" t="n">
+        <v>2479</v>
+      </c>
       <c r="E22" s="152" t="n">
         <f aca="false">IFERROR((D22-C22)/ABS(C22),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="105" t="n">
+      <c r="F22" s="107" t="n">
         <v>9354</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="83" t="n">
+      <c r="G22" s="115" t="n">
+        <v>2273</v>
+      </c>
+      <c r="H22" s="115" t="n">
+        <v>-612</v>
+      </c>
+      <c r="I22" s="85" t="n">
         <f aca="false">IFERROR((H22-G22)/ABS(G22),0)</f>
         <v>0</v>
       </c>
       <c r="J22" s="150" t="n">
         <v>5968</v>
       </c>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="84" t="n">
+      <c r="K22" s="114" t="n">
+        <v>2563</v>
+      </c>
+      <c r="L22" s="114" t="n">
+        <v>3147</v>
+      </c>
+      <c r="M22" s="86" t="n">
         <f aca="false">IFERROR((L22-K22)/ABS(K22),0)</f>
         <v>0</v>
       </c>
       <c r="N22" s="154" t="n">
         <v>17471</v>
       </c>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="83" t="n">
+      <c r="O22" s="115" t="n">
+        <v>4836</v>
+      </c>
+      <c r="P22" s="115" t="n">
+        <v>2535</v>
+      </c>
+      <c r="Q22" s="85" t="n">
         <f aca="false">IFERROR((P22-O22)/ABS(O22),0)</f>
         <v>0</v>
       </c>
@@ -9556,9 +10126,13 @@
         <f aca="false">IFERROR(F22/N22,0)</f>
         <v>0.535401522523038</v>
       </c>
-      <c r="S22" s="109"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="84" t="n">
+      <c r="S22" s="111" t="n">
+        <v>47</v>
+      </c>
+      <c r="T22" s="155" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="U22" s="86" t="n">
         <f aca="false">T22-S22</f>
         <v>0</v>
       </c>
@@ -9566,8 +10140,12 @@
         <f aca="false">IFERROR(B22/J22,0)</f>
         <v>0.473860589812332</v>
       </c>
-      <c r="W22" s="163"/>
-      <c r="X22" s="163"/>
+      <c r="W22" s="163" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="X22" s="163" t="n">
+        <v>78.8</v>
+      </c>
       <c r="Y22" s="157" t="n">
         <f aca="false">X22-W22</f>
         <v>0</v>
@@ -9575,42 +10153,58 @@
       <c r="AA22" s="40"/>
     </row>
     <row r="23" ht="12" customHeight="1">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="95" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="150" t="n">
         <v>5658</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="26" t="n">
+        <v>5920</v>
+      </c>
+      <c r="D23" s="26" t="n">
+        <v>9709</v>
+      </c>
       <c r="E23" s="152" t="n">
         <f aca="false">IFERROR((D23-C23)/ABS(C23),0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="105" t="n">
+      <c r="F23" s="107" t="n">
         <v>2927</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="83" t="n">
+      <c r="G23" s="110" t="n">
+        <v>3866</v>
+      </c>
+      <c r="H23" s="110" t="n">
+        <v>5214</v>
+      </c>
+      <c r="I23" s="85" t="n">
         <f aca="false">IFERROR((H23-G23)/ABS(G23),0)</f>
         <v>0</v>
       </c>
       <c r="J23" s="150" t="n">
         <v>2831</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="84" t="n">
+      <c r="K23" s="26" t="n">
+        <v>2054</v>
+      </c>
+      <c r="L23" s="26" t="n">
+        <v>2549</v>
+      </c>
+      <c r="M23" s="86" t="n">
         <f aca="false">IFERROR((L23-K23)/ABS(K23),0)</f>
         <v>0</v>
       </c>
       <c r="N23" s="154" t="n">
         <v>5758</v>
       </c>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="83" t="n">
+      <c r="O23" s="110" t="n">
+        <v>5920</v>
+      </c>
+      <c r="P23" s="110" t="n">
+        <v>9719</v>
+      </c>
+      <c r="Q23" s="85" t="n">
         <f aca="false">IFERROR((P23-O23)/ABS(O23),0)</f>
         <v>0</v>
       </c>
@@ -9618,9 +10212,13 @@
         <f aca="false">IFERROR(F23/N23,0)</f>
         <v>0.508336227856895</v>
       </c>
-      <c r="S23" s="109"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="84" t="n">
+      <c r="S23" s="111" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="T23" s="155" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="U23" s="86" t="n">
         <f aca="false">T23-S23</f>
         <v>0</v>
       </c>
@@ -9628,8 +10226,12 @@
         <f aca="false">IFERROR(B23/J23,0)</f>
         <v>1.99858707170611</v>
       </c>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
+      <c r="W23" s="163" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="X23" s="163" t="n">
+        <v>380.9</v>
+      </c>
       <c r="Y23" s="157" t="n">
         <f aca="false">X23-W23</f>
         <v>0</v>
@@ -9637,58 +10239,58 @@
       <c r="AA23" s="40"/>
     </row>
     <row r="24" ht="13.8" customHeight="1">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="95" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="150" t="n">
         <v>2183</v>
       </c>
-      <c r="C24" s="106" t="n">
+      <c r="C24" s="108" t="n">
         <v>5905</v>
       </c>
-      <c r="D24" s="106" t="n">
+      <c r="D24" s="108" t="n">
         <v>6270</v>
       </c>
       <c r="E24" s="152" t="n">
         <f aca="false">IFERROR((D24-C24)/ABS(C24),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="105" t="n">
+      <c r="F24" s="107" t="n">
         <v>1108</v>
       </c>
-      <c r="G24" s="107" t="n">
+      <c r="G24" s="109" t="n">
         <v>4604</v>
       </c>
-      <c r="H24" s="107" t="n">
+      <c r="H24" s="109" t="n">
         <v>4932</v>
       </c>
-      <c r="I24" s="83" t="n">
+      <c r="I24" s="85" t="n">
         <f aca="false">IFERROR((H24-G24)/ABS(G24),0)</f>
         <v>0</v>
       </c>
       <c r="J24" s="150" t="n">
         <v>975</v>
       </c>
-      <c r="K24" s="106" t="n">
+      <c r="K24" s="108" t="n">
         <v>1568</v>
       </c>
-      <c r="L24" s="106" t="n">
+      <c r="L24" s="108" t="n">
         <v>1457</v>
       </c>
-      <c r="M24" s="84" t="n">
+      <c r="M24" s="86" t="n">
         <f aca="false">IFERROR((L24-K24)/ABS(K24),0)</f>
         <v>0</v>
       </c>
       <c r="N24" s="154" t="n">
         <v>2183</v>
       </c>
-      <c r="O24" s="107" t="n">
+      <c r="O24" s="109" t="n">
         <v>6172</v>
       </c>
-      <c r="P24" s="107" t="n">
+      <c r="P24" s="109" t="n">
         <v>6389</v>
       </c>
-      <c r="Q24" s="83" t="n">
+      <c r="Q24" s="85" t="n">
         <f aca="false">IFERROR((P24-O24)/ABS(O24),0)</f>
         <v>0</v>
       </c>
@@ -9696,13 +10298,13 @@
         <f aca="false">IFERROR(F24/N24,0)</f>
         <v>0.507558405863491</v>
       </c>
-      <c r="S24" s="109" t="n">
+      <c r="S24" s="111" t="n">
         <v>74.6</v>
       </c>
       <c r="T24" s="155" t="n">
         <v>77.2</v>
       </c>
-      <c r="U24" s="84" t="n">
+      <c r="U24" s="86" t="n">
         <f aca="false">T24-S24</f>
         <v>0</v>
       </c>
@@ -9723,42 +10325,58 @@
       <c r="AA24" s="40"/>
     </row>
     <row r="25" ht="13.8" customHeight="1">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="95" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="150" t="n">
         <v>5459</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="26" t="n">
+        <v>5344.498</v>
+      </c>
+      <c r="D25" s="26" t="n">
+        <v>6578.919</v>
+      </c>
       <c r="E25" s="152" t="n">
         <f aca="false">IFERROR((D25-C25)/ABS(C25),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="105" t="n">
+      <c r="F25" s="107" t="n">
         <v>4670</v>
       </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="83" t="n">
+      <c r="G25" s="110" t="n">
+        <v>6618.954</v>
+      </c>
+      <c r="H25" s="110" t="n">
+        <v>7485.587</v>
+      </c>
+      <c r="I25" s="85" t="n">
         <f aca="false">IFERROR((H25-G25)/ABS(G25),0)</f>
         <v>0</v>
       </c>
       <c r="J25" s="150" t="n">
         <v>1203</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="84" t="n">
+      <c r="K25" s="26" t="n">
+        <v>1225.544</v>
+      </c>
+      <c r="L25" s="26" t="n">
+        <v>1193.332</v>
+      </c>
+      <c r="M25" s="86" t="n">
         <f aca="false">IFERROR((L25-K25)/ABS(K25),0)</f>
         <v>0</v>
       </c>
       <c r="N25" s="154" t="n">
         <v>5873</v>
       </c>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="83" t="n">
+      <c r="O25" s="110" t="n">
+        <v>7844.498</v>
+      </c>
+      <c r="P25" s="110" t="n">
+        <v>8678.919</v>
+      </c>
+      <c r="Q25" s="85" t="n">
         <f aca="false">IFERROR((P25-O25)/ABS(O25),0)</f>
         <v>0</v>
       </c>
@@ -9766,9 +10384,13 @@
         <f aca="false">IFERROR(F25/N25,0)</f>
         <v>0.795164311254895</v>
       </c>
-      <c r="S25" s="109"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="84" t="n">
+      <c r="S25" s="111" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="T25" s="155" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="U25" s="86" t="n">
         <f aca="false">T25-S25</f>
         <v>0</v>
       </c>
@@ -9776,8 +10398,12 @@
         <f aca="false">IFERROR(B25/J25,0)</f>
         <v>4.5378221113882</v>
       </c>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
+      <c r="W25" s="163" t="n">
+        <v>436.1</v>
+      </c>
+      <c r="X25" s="163" t="n">
+        <v>551.3</v>
+      </c>
       <c r="Y25" s="157" t="n">
         <f aca="false">X25-W25</f>
         <v>0</v>
@@ -9785,7 +10411,7 @@
       <c r="AA25" s="40"/>
     </row>
     <row r="26" ht="13.8" customHeight="1">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="95" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="150" t="n">
@@ -9801,16 +10427,16 @@
         <f aca="false">IFERROR((D26-C26)/ABS(C26),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="105" t="n">
+      <c r="F26" s="107" t="n">
         <v>5622.456</v>
       </c>
-      <c r="G26" s="108" t="n">
+      <c r="G26" s="110" t="n">
         <v>422</v>
       </c>
-      <c r="H26" s="108" t="n">
+      <c r="H26" s="110" t="n">
         <v>1800</v>
       </c>
-      <c r="I26" s="83" t="n">
+      <c r="I26" s="85" t="n">
         <f aca="false">IFERROR((H26-G26)/ABS(G26),0)</f>
         <v>0</v>
       </c>
@@ -9823,20 +10449,20 @@
       <c r="L26" s="26" t="n">
         <v>363</v>
       </c>
-      <c r="M26" s="84" t="n">
+      <c r="M26" s="86" t="n">
         <f aca="false">IFERROR((L26-K26)/ABS(K26),0)</f>
         <v>0</v>
       </c>
       <c r="N26" s="154" t="n">
         <v>7710.813</v>
       </c>
-      <c r="O26" s="108" t="n">
+      <c r="O26" s="110" t="n">
         <v>1272</v>
       </c>
-      <c r="P26" s="108" t="n">
+      <c r="P26" s="110" t="n">
         <v>2163</v>
       </c>
-      <c r="Q26" s="83" t="n">
+      <c r="Q26" s="85" t="n">
         <f aca="false">IFERROR((P26-O26)/ABS(O26),0)</f>
         <v>0</v>
       </c>
@@ -9844,13 +10470,13 @@
         <f aca="false">IFERROR(F26/N26,0)</f>
         <v>0.729165134727039</v>
       </c>
-      <c r="S26" s="109" t="n">
+      <c r="S26" s="111" t="n">
         <v>33.2</v>
       </c>
       <c r="T26" s="155" t="n">
         <v>83.2</v>
       </c>
-      <c r="U26" s="84" t="n">
+      <c r="U26" s="86" t="n">
         <f aca="false">T26-S26</f>
         <v>0</v>
       </c>
@@ -9871,42 +10497,58 @@
       <c r="AA26" s="40"/>
     </row>
     <row r="27" ht="13.8" customHeight="1">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="112" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="150" t="n">
         <v>998</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="102" t="n">
+        <v>99510</v>
+      </c>
+      <c r="D27" s="102" t="n">
+        <v>109386</v>
+      </c>
       <c r="E27" s="152" t="n">
         <f aca="false">IFERROR((D27-C27)/ABS(C27),0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="105" t="n">
+      <c r="F27" s="107" t="n">
         <v>242</v>
       </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="83" t="n">
+      <c r="G27" s="99" t="n">
+        <v>102191</v>
+      </c>
+      <c r="H27" s="99" t="n">
+        <v>105343</v>
+      </c>
+      <c r="I27" s="85" t="n">
         <f aca="false">IFERROR((H27-G27)/ABS(G27),0)</f>
         <v>0</v>
       </c>
       <c r="J27" s="150" t="n">
         <v>756</v>
       </c>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="84" t="n">
+      <c r="K27" s="102" t="n">
+        <v>6444</v>
+      </c>
+      <c r="L27" s="102" t="n">
+        <v>10944</v>
+      </c>
+      <c r="M27" s="86" t="n">
         <f aca="false">IFERROR((L27-K27)/ABS(K27),0)</f>
         <v>0</v>
       </c>
       <c r="N27" s="154" t="n">
         <v>998</v>
       </c>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="83" t="n">
+      <c r="O27" s="99" t="n">
+        <v>108635</v>
+      </c>
+      <c r="P27" s="99" t="n">
+        <v>116287</v>
+      </c>
+      <c r="Q27" s="85" t="n">
         <f aca="false">IFERROR((P27-O27)/ABS(O27),0)</f>
         <v>0</v>
       </c>
@@ -9914,9 +10556,13 @@
         <f aca="false">IFERROR(F27/N27,0)</f>
         <v>0.24248496993988</v>
       </c>
-      <c r="S27" s="109"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="84" t="n">
+      <c r="S27" s="111" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="T27" s="155" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="U27" s="86" t="n">
         <f aca="false">T27-S27</f>
         <v>0</v>
       </c>
@@ -9924,8 +10570,12 @@
         <f aca="false">IFERROR(B27/J27,0)</f>
         <v>1.32010582010582</v>
       </c>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
+      <c r="W27" s="163" t="n">
+        <v>1544.2</v>
+      </c>
+      <c r="X27" s="163" t="n">
+        <v>999.5</v>
+      </c>
       <c r="Y27" s="157" t="n">
         <f aca="false">X27-W27</f>
         <v>0</v>
@@ -9933,42 +10583,58 @@
       <c r="AA27" s="40"/>
     </row>
     <row r="28" ht="13.8" customHeight="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="95" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="150" t="n">
         <v>94060</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
+      <c r="C28" s="114" t="n">
+        <v>6273</v>
+      </c>
+      <c r="D28" s="114" t="n">
+        <v>6445.203</v>
+      </c>
       <c r="E28" s="152" t="n">
         <f aca="false">IFERROR((D28-C28)/ABS(C28),0)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="105" t="n">
+      <c r="F28" s="107" t="n">
         <v>94152</v>
       </c>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="83" t="n">
+      <c r="G28" s="115" t="n">
+        <v>5976</v>
+      </c>
+      <c r="H28" s="115" t="n">
+        <v>5988.215</v>
+      </c>
+      <c r="I28" s="85" t="n">
         <f aca="false">IFERROR((H28-G28)/ABS(G28),0)</f>
         <v>0</v>
       </c>
       <c r="J28" s="150" t="n">
         <v>11260</v>
       </c>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="84" t="n">
+      <c r="K28" s="114" t="n">
+        <v>577</v>
+      </c>
+      <c r="L28" s="114" t="n">
+        <v>715.36</v>
+      </c>
+      <c r="M28" s="86" t="n">
         <f aca="false">IFERROR((L28-K28)/ABS(K28),0)</f>
         <v>0</v>
       </c>
       <c r="N28" s="154" t="n">
         <v>105412</v>
       </c>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="83" t="n">
+      <c r="O28" s="115" t="n">
+        <v>6553</v>
+      </c>
+      <c r="P28" s="115" t="n">
+        <v>6703.575</v>
+      </c>
+      <c r="Q28" s="85" t="n">
         <f aca="false">IFERROR((P28-O28)/ABS(O28),0)</f>
         <v>0</v>
       </c>
@@ -9976,9 +10642,13 @@
         <f aca="false">IFERROR(F28/N28,0)</f>
         <v>0.893181042006603</v>
       </c>
-      <c r="S28" s="109"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="84" t="n">
+      <c r="S28" s="111" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="T28" s="155" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="U28" s="86" t="n">
         <f aca="false">T28-S28</f>
         <v>0</v>
       </c>
@@ -9986,8 +10656,12 @@
         <f aca="false">IFERROR(B28/J28,0)</f>
         <v>8.35346358792185</v>
       </c>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
+      <c r="W28" s="163" t="n">
+        <v>1087.2</v>
+      </c>
+      <c r="X28" s="163" t="n">
+        <v>901</v>
+      </c>
       <c r="Y28" s="157" t="n">
         <f aca="false">X28-W28</f>
         <v>0</v>
@@ -9995,7 +10669,7 @@
       <c r="AA28" s="40"/>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="112" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="150" t="n">
@@ -10007,12 +10681,12 @@
         <f aca="false">IFERROR((D29-C29)/ABS(C29),0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="105" t="n">
+      <c r="F29" s="107" t="n">
         <v>6018</v>
       </c>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="83" t="n">
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="85" t="n">
         <f aca="false">IFERROR((H29-G29)/ABS(G29),0)</f>
         <v>0</v>
       </c>
@@ -10021,16 +10695,16 @@
       </c>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="84" t="n">
+      <c r="M29" s="86" t="n">
         <f aca="false">IFERROR((L29-K29)/ABS(K29),0)</f>
         <v>0</v>
       </c>
       <c r="N29" s="154" t="n">
         <v>6818</v>
       </c>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="83" t="n">
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="85" t="n">
         <f aca="false">IFERROR((P29-O29)/ABS(O29),0)</f>
         <v>0</v>
       </c>
@@ -10038,9 +10712,9 @@
         <f aca="false">IFERROR(F29/N29,0)</f>
         <v>0.882663537694339</v>
       </c>
-      <c r="S29" s="109"/>
+      <c r="S29" s="111"/>
       <c r="T29" s="155"/>
-      <c r="U29" s="84" t="n">
+      <c r="U29" s="86" t="n">
         <f aca="false">T29-S29</f>
         <v>0</v>
       </c>
@@ -10057,7 +10731,7 @@
       <c r="AA29" s="40"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="112" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="150" t="n">
@@ -10069,12 +10743,12 @@
         <f aca="false">IFERROR((D30-C30)/ABS(C30),0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="105" t="n">
+      <c r="F30" s="107" t="n">
         <v>27990</v>
       </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="83" t="n">
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="85" t="n">
         <f aca="false">IFERROR((H30-G30)/ABS(G30),0)</f>
         <v>0</v>
       </c>
@@ -10083,16 +10757,16 @@
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="84" t="n">
+      <c r="M30" s="86" t="n">
         <f aca="false">IFERROR((L30-K30)/ABS(K30),0)</f>
         <v>0</v>
       </c>
       <c r="N30" s="154" t="n">
         <v>43719</v>
       </c>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="83" t="n">
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="85" t="n">
         <f aca="false">IFERROR((P30-O30)/ABS(O30),0)</f>
         <v>0</v>
       </c>
@@ -10100,9 +10774,9 @@
         <f aca="false">IFERROR(F30/N30,0)</f>
         <v>0.640225073766555</v>
       </c>
-      <c r="S30" s="109"/>
+      <c r="S30" s="111"/>
       <c r="T30" s="155"/>
-      <c r="U30" s="84" t="n">
+      <c r="U30" s="86" t="n">
         <f aca="false">T30-S30</f>
         <v>0</v>
       </c>
@@ -10119,14 +10793,14 @@
       <c r="AA30" s="40"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="120" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="150" t="n">
         <v>50014</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="152" t="n">
         <f aca="false">IFERROR((D31-C31)/ABS(C31),0)</f>
         <v>0</v>
@@ -10134,27 +10808,27 @@
       <c r="F31" s="165" t="n">
         <v>40734.562</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="83" t="n">
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="85" t="n">
         <f aca="false">IFERROR((H31-G31)/ABS(G31),0)</f>
         <v>0</v>
       </c>
       <c r="J31" s="150" t="n">
         <v>7248.082</v>
       </c>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="84" t="n">
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="86" t="n">
         <f aca="false">IFERROR((L31-K31)/ABS(K31),0)</f>
         <v>0</v>
       </c>
       <c r="N31" s="154" t="n">
         <v>50013.715</v>
       </c>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="83" t="n">
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="85" t="n">
         <f aca="false">IFERROR((P31-O31)/ABS(O31),0)</f>
         <v>0</v>
       </c>
@@ -10162,9 +10836,9 @@
         <f aca="false">IFERROR(F31/N31,0)</f>
         <v>0.814467831473827</v>
       </c>
-      <c r="S31" s="109"/>
+      <c r="S31" s="111"/>
       <c r="T31" s="155"/>
-      <c r="U31" s="84" t="n">
+      <c r="U31" s="86" t="n">
         <f aca="false">T31-S31</f>
         <v>0</v>
       </c>
@@ -10181,7 +10855,7 @@
       <c r="AA31" s="40"/>
     </row>
     <row r="32" ht="24.75" customHeight="1">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="122" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="166" t="n">
@@ -10196,9 +10870,9 @@
       <c r="F32" s="167" t="n">
         <v>1562</v>
       </c>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="83" t="n">
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="85" t="n">
         <f aca="false">IFERROR((H32-G32)/ABS(G32),0)</f>
         <v>0</v>
       </c>
@@ -10207,16 +10881,16 @@
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="84" t="n">
+      <c r="M32" s="86" t="n">
         <f aca="false">IFERROR((L32-K32)/ABS(K32),0)</f>
         <v>0</v>
       </c>
       <c r="N32" s="154" t="n">
         <v>2750</v>
       </c>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="83" t="n">
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="85" t="n">
         <f aca="false">IFERROR((P32-O32)/ABS(O32),0)</f>
         <v>0</v>
       </c>
@@ -10224,9 +10898,9 @@
         <f aca="false">IFERROR(F32/N32,0)</f>
         <v>0.568</v>
       </c>
-      <c r="S32" s="109"/>
+      <c r="S32" s="111"/>
       <c r="T32" s="155"/>
-      <c r="U32" s="84" t="n">
+      <c r="U32" s="86" t="n">
         <f aca="false">T32-S32</f>
         <v>0</v>
       </c>
@@ -10243,25 +10917,25 @@
       <c r="AA32" s="40"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="128" t="s">
         <v>94</v>
       </c>
       <c r="B33" s="168"/>
       <c r="C33" s="169"/>
       <c r="D33" s="169"/>
-      <c r="E33" s="129"/>
+      <c r="E33" s="131"/>
       <c r="F33" s="170"/>
       <c r="G33" s="171"/>
       <c r="H33" s="171"/>
-      <c r="I33" s="131"/>
+      <c r="I33" s="133"/>
       <c r="J33" s="172"/>
       <c r="K33" s="169"/>
       <c r="L33" s="169"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="133"/>
       <c r="O33" s="171"/>
       <c r="P33" s="171"/>
-      <c r="Q33" s="131"/>
+      <c r="Q33" s="133"/>
       <c r="R33" s="172" t="n">
         <f aca="false">IFERROR(F34/N34,0)</f>
         <v>0.493854135347684</v>
@@ -10290,7 +10964,7 @@
       <c r="Y33" s="175"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="176" t="n">
@@ -10312,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="178"/>
-      <c r="I34" s="48"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="176" t="n">
         <f aca="false">SUM(J6:J32)</f>
         <v>276204.929</v>
@@ -10332,14 +11006,14 @@
         <v>0</v>
       </c>
       <c r="P34" s="179"/>
-      <c r="Q34" s="48"/>
+      <c r="Q34" s="50"/>
       <c r="R34" s="180"/>
       <c r="S34" s="180"/>
       <c r="T34" s="180"/>
       <c r="U34" s="181"/>
       <c r="V34" s="182"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
       <c r="Y34" s="183"/>
     </row>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -10347,7 +11021,7 @@
       <c r="A36" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="40"/>
       <c r="I36" s="40"/>
     </row>
@@ -10543,7 +11217,7 @@
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="80" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="193" t="s">
@@ -10800,7 +11474,7 @@
       <c r="K21" s="195"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="88" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="184" t="s">
@@ -10953,7 +11627,7 @@
       <c r="K30" s="195"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="112" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="184" t="s">
@@ -10970,7 +11644,7 @@
       <c r="K31" s="195"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="112" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="203" t="s">
@@ -11374,7 +12048,7 @@
       <c r="C47" s="242"/>
       <c r="D47" s="242"/>
       <c r="E47" s="242"/>
-      <c r="F47" s="89"/>
+      <c r="F47" s="91"/>
       <c r="G47" s="237"/>
       <c r="H47" s="237"/>
       <c r="I47" s="237"/>
@@ -11398,10 +12072,10 @@
       <c r="B48" s="242" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
       <c r="G48" s="237"/>
       <c r="H48" s="237"/>
       <c r="I48" s="237"/>
@@ -11484,7 +12158,7 @@
       <c r="U50" s="225"/>
     </row>
     <row r="51" ht="30.75" customHeight="1">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="99" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="250" t="s">
@@ -11519,7 +12193,7 @@
       <c r="U51" s="225"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="99" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="254"/>
